--- a/files/results.xlsx
+++ b/files/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\Digievolucion\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\github\Digievolucion\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29CFF9-8F9C-430F-98EC-635168198746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35880058-16B0-4394-884C-E9825C5FFD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="5670" windowWidth="17250" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>chromosomeJorge1</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>chromosomeJorge0</t>
+  </si>
+  <si>
+    <t>chromosomeCarlosR1</t>
+  </si>
+  <si>
+    <t>{2,4,6,7,9}</t>
+  </si>
+  <si>
+    <t>chromosomeCarlosR2</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -287,11 +296,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,6 +348,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,34 +372,6 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -738,6 +747,34 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -878,8 +915,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}" name="Table1" displayName="Table1" ref="A2:Q10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A2:Q10" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}" name="Table1" displayName="Table1" ref="A2:Q12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:Q12" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -901,21 +938,21 @@
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{83342CD1-3207-424D-BF4E-5884CA5C5C5A}" name="Model" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{F73BD6E6-80F1-4E55-A37D-A2B257F74134}" name="Map 0" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2F7B3B44-6101-4CD9-849C-C445B532E80D}" name="Map 1" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{0E3F57E6-AC19-4812-BA3C-007211C76514}" name="Map 2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{37139713-BDCE-49D8-9FC1-641524B486E6}" name="Map 3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D024F6F3-0F24-4674-882F-D83DD1138804}" name="Map 4" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{74446B40-6A27-4FD6-8AF1-C282182D48E5}" name="Map 5" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{9BADCBF4-A1B2-4D01-B4C4-FF537BDF38BE}" name="Map 6" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{46C3F92D-D9B4-41FD-BB07-0E2C0946E73D}" name="Map 7" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{2B32E458-3379-4DB3-907F-9B4531E69142}" name="Map 8" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{3C93BE20-B93F-4F49-80EB-93CD30F87DC3}" name="Map 9" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{71477164-69AD-4967-8E8B-D1162DD1148F}" name="Map 10" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{BCEDDECE-BF9C-40A3-BFE6-27514C89EBD1}" name="Map 11" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{52D0F212-A73F-4F9A-A7FD-DB408A2494CE}" name="Map 12" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{33536C40-8D2A-453D-AB8D-6E002F262075}" name="Map 13" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{3B1FC886-981A-40F4-8C66-EE4A4151FD4A}" name="Map 14" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{020A042A-A175-4E96-A7B8-C7E12C90CBD0}" name="Average" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{2F7B3B44-6101-4CD9-849C-C445B532E80D}" name="Map 1" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0E3F57E6-AC19-4812-BA3C-007211C76514}" name="Map 2" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{37139713-BDCE-49D8-9FC1-641524B486E6}" name="Map 3" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D024F6F3-0F24-4674-882F-D83DD1138804}" name="Map 4" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{74446B40-6A27-4FD6-8AF1-C282182D48E5}" name="Map 5" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{9BADCBF4-A1B2-4D01-B4C4-FF537BDF38BE}" name="Map 6" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{46C3F92D-D9B4-41FD-BB07-0E2C0946E73D}" name="Map 7" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{2B32E458-3379-4DB3-907F-9B4531E69142}" name="Map 8" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{3C93BE20-B93F-4F49-80EB-93CD30F87DC3}" name="Map 9" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{71477164-69AD-4967-8E8B-D1162DD1148F}" name="Map 10" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{BCEDDECE-BF9C-40A3-BFE6-27514C89EBD1}" name="Map 11" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52D0F212-A73F-4F9A-A7FD-DB408A2494CE}" name="Map 12" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{33536C40-8D2A-453D-AB8D-6E002F262075}" name="Map 13" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{3B1FC886-981A-40F4-8C66-EE4A4151FD4A}" name="Map 14" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{020A042A-A175-4E96-A7B8-C7E12C90CBD0}" name="Average" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1186,20 +1223,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T10"/>
+  <dimension ref="A2:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="9.7109375" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1294,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1351,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1408,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1465,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +1524,7 @@
       </c>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1582,7 @@
       </c>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1603,7 +1640,7 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1698,7 @@
       </c>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1718,9 +1755,120 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9">
+        <v>193.1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>197.35</v>
+      </c>
+      <c r="D11" s="9">
+        <v>181.13</v>
+      </c>
+      <c r="E11" s="9">
+        <v>373.59</v>
+      </c>
+      <c r="F11" s="9">
+        <v>141.82</v>
+      </c>
+      <c r="G11" s="9">
+        <v>538.82000000000005</v>
+      </c>
+      <c r="H11" s="9">
+        <v>289.58999999999997</v>
+      </c>
+      <c r="I11" s="9">
+        <v>329.45</v>
+      </c>
+      <c r="J11" s="9">
+        <v>445.57</v>
+      </c>
+      <c r="K11" s="9">
+        <v>308.97000000000003</v>
+      </c>
+      <c r="L11" s="9">
+        <v>488.73</v>
+      </c>
+      <c r="M11" s="9">
+        <v>323.06</v>
+      </c>
+      <c r="N11" s="9">
+        <v>411.91</v>
+      </c>
+      <c r="O11" s="9">
+        <v>383.66</v>
+      </c>
+      <c r="P11" s="9">
+        <v>339.75</v>
+      </c>
+      <c r="Q11" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>329.76666666666665</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9">
+        <v>193.53</v>
+      </c>
+      <c r="C12" s="9">
+        <v>172.45</v>
+      </c>
+      <c r="D12" s="9">
+        <v>182.13</v>
+      </c>
+      <c r="E12" s="9">
+        <v>341.04</v>
+      </c>
+      <c r="F12" s="9">
+        <v>141.16</v>
+      </c>
+      <c r="G12" s="9">
+        <v>585.02</v>
+      </c>
+      <c r="H12" s="9">
+        <v>300.2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>398.1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>399.78</v>
+      </c>
+      <c r="K12" s="9">
+        <v>373.16</v>
+      </c>
+      <c r="L12" s="9">
+        <v>429.33</v>
+      </c>
+      <c r="M12" s="9">
+        <v>393.07</v>
+      </c>
+      <c r="N12" s="9">
+        <v>376.22</v>
+      </c>
+      <c r="O12" s="9">
+        <v>331.93</v>
+      </c>
+      <c r="P12" s="9">
+        <v>299.45</v>
+      </c>
+      <c r="Q12" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>327.7713333333333</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C10">
+  <conditionalFormatting sqref="C3:C12">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -1744,7 +1892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E10">
+  <conditionalFormatting sqref="E3:E12">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -1756,7 +1904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F10">
+  <conditionalFormatting sqref="F3:F12">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -1768,7 +1916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G10">
+  <conditionalFormatting sqref="G3:G12">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -1828,7 +1976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M10">
+  <conditionalFormatting sqref="M3:M12">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -1876,7 +2024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I10">
+  <conditionalFormatting sqref="I3:I12">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -1888,7 +2036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q10">
+  <conditionalFormatting sqref="Q3:Q12">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -1900,7 +2048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10">
+  <conditionalFormatting sqref="B3:B12">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>

--- a/files/results.xlsx
+++ b/files/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\github\Digievolucion\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\Digievolucion\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35880058-16B0-4394-884C-E9825C5FFD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BF06C-EE80-42F4-8605-666139BC3E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5670" windowWidth="17250" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>chromosomeJorge1</t>
   </si>
@@ -129,10 +129,28 @@
     <t>chromosomeCarlosR1</t>
   </si>
   <si>
-    <t>{2,4,6,7,9}</t>
-  </si>
-  <si>
     <t>chromosomeCarlosR2</t>
+  </si>
+  <si>
+    <t>chromosomeCarlos</t>
+  </si>
+  <si>
+    <t>{3, 4, 5, 8, 9, 11, 13}</t>
+  </si>
+  <si>
+    <t>chromosomeCarlos2</t>
+  </si>
+  <si>
+    <t>chromosomeCarlos15</t>
+  </si>
+  <si>
+    <t>chromosomeCarlos15_2</t>
+  </si>
+  <si>
+    <t>{2, 4, 6, 7, 9}</t>
+  </si>
+  <si>
+    <t>{1, 3, 6, 8, 10, 14}</t>
   </si>
 </sst>
 </file>
@@ -188,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -307,22 +325,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,9 +358,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,6 +380,122 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -663,118 +783,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -915,8 +923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}" name="Table1" displayName="Table1" ref="A2:Q12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A2:Q12" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}" name="Table1" displayName="Table1" ref="A2:Q16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:Q16" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -937,22 +945,22 @@
   </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{83342CD1-3207-424D-BF4E-5884CA5C5C5A}" name="Model" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{F73BD6E6-80F1-4E55-A37D-A2B257F74134}" name="Map 0" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2F7B3B44-6101-4CD9-849C-C445B532E80D}" name="Map 1" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{0E3F57E6-AC19-4812-BA3C-007211C76514}" name="Map 2" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{37139713-BDCE-49D8-9FC1-641524B486E6}" name="Map 3" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D024F6F3-0F24-4674-882F-D83DD1138804}" name="Map 4" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{74446B40-6A27-4FD6-8AF1-C282182D48E5}" name="Map 5" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{9BADCBF4-A1B2-4D01-B4C4-FF537BDF38BE}" name="Map 6" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{46C3F92D-D9B4-41FD-BB07-0E2C0946E73D}" name="Map 7" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{2B32E458-3379-4DB3-907F-9B4531E69142}" name="Map 8" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{3C93BE20-B93F-4F49-80EB-93CD30F87DC3}" name="Map 9" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{71477164-69AD-4967-8E8B-D1162DD1148F}" name="Map 10" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{BCEDDECE-BF9C-40A3-BFE6-27514C89EBD1}" name="Map 11" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52D0F212-A73F-4F9A-A7FD-DB408A2494CE}" name="Map 12" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{33536C40-8D2A-453D-AB8D-6E002F262075}" name="Map 13" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{3B1FC886-981A-40F4-8C66-EE4A4151FD4A}" name="Map 14" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{020A042A-A175-4E96-A7B8-C7E12C90CBD0}" name="Average" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{F73BD6E6-80F1-4E55-A37D-A2B257F74134}" name="Map 0" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2F7B3B44-6101-4CD9-849C-C445B532E80D}" name="Map 1" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0E3F57E6-AC19-4812-BA3C-007211C76514}" name="Map 2" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{37139713-BDCE-49D8-9FC1-641524B486E6}" name="Map 3" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{D024F6F3-0F24-4674-882F-D83DD1138804}" name="Map 4" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{74446B40-6A27-4FD6-8AF1-C282182D48E5}" name="Map 5" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{9BADCBF4-A1B2-4D01-B4C4-FF537BDF38BE}" name="Map 6" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{46C3F92D-D9B4-41FD-BB07-0E2C0946E73D}" name="Map 7" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{2B32E458-3379-4DB3-907F-9B4531E69142}" name="Map 8" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{3C93BE20-B93F-4F49-80EB-93CD30F87DC3}" name="Map 9" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{71477164-69AD-4967-8E8B-D1162DD1148F}" name="Map 10" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{BCEDDECE-BF9C-40A3-BFE6-27514C89EBD1}" name="Map 11" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{52D0F212-A73F-4F9A-A7FD-DB408A2494CE}" name="Map 12" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{33536C40-8D2A-453D-AB8D-6E002F262075}" name="Map 13" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{3B1FC886-981A-40F4-8C66-EE4A4151FD4A}" name="Map 14" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{020A042A-A175-4E96-A7B8-C7E12C90CBD0}" name="Average" dataDxfId="4">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1223,20 +1231,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T12"/>
+  <dimension ref="A2:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="9.6640625" customWidth="1"/>
-    <col min="19" max="19" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1294,7 +1302,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1359,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1416,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1473,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1524,7 +1532,7 @@
       </c>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1590,7 @@
       </c>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1640,7 +1648,7 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
@@ -1698,11 +1706,11 @@
       </c>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>140.81</v>
       </c>
       <c r="C10" s="9">
@@ -1755,11 +1763,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>193.1</v>
       </c>
       <c r="C11" s="9">
@@ -1801,22 +1809,22 @@
       <c r="O11" s="9">
         <v>383.66</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="6">
         <v>339.75</v>
       </c>
       <c r="Q11" s="11">
         <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
         <v>329.76666666666665</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>193.53</v>
       </c>
       <c r="C12" s="9">
@@ -1858,18 +1866,243 @@
       <c r="O12" s="9">
         <v>331.93</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="6">
         <v>299.45</v>
       </c>
       <c r="Q12" s="11">
         <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
         <v>327.7713333333333</v>
       </c>
+      <c r="S12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6">
+        <v>279.94</v>
+      </c>
+      <c r="C13" s="9">
+        <v>190.32</v>
+      </c>
+      <c r="D13" s="6">
+        <v>158.13999999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>343.11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>166.16</v>
+      </c>
+      <c r="G13" s="6">
+        <v>468.93</v>
+      </c>
+      <c r="H13" s="6">
+        <v>295.64</v>
+      </c>
+      <c r="I13" s="6">
+        <v>374.86</v>
+      </c>
+      <c r="J13" s="6">
+        <v>395.68</v>
+      </c>
+      <c r="K13" s="6">
+        <v>417.7</v>
+      </c>
+      <c r="L13" s="6">
+        <v>417.08</v>
+      </c>
+      <c r="M13" s="6">
+        <v>285.12</v>
+      </c>
+      <c r="N13" s="6">
+        <v>377.83</v>
+      </c>
+      <c r="O13" s="6">
+        <v>281.98</v>
+      </c>
+      <c r="P13" s="6">
+        <v>311.49</v>
+      </c>
+      <c r="Q13" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>317.59866666666665</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6">
+        <v>211.32</v>
+      </c>
+      <c r="C14" s="9">
+        <v>194.18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>196.82</v>
+      </c>
+      <c r="E14" s="6">
+        <v>365.56</v>
+      </c>
+      <c r="F14" s="6">
+        <v>138.49</v>
+      </c>
+      <c r="G14" s="6">
+        <v>448.84</v>
+      </c>
+      <c r="H14" s="6">
+        <v>278.43</v>
+      </c>
+      <c r="I14" s="6">
+        <v>338.31</v>
+      </c>
+      <c r="J14" s="6">
+        <v>414.09</v>
+      </c>
+      <c r="K14" s="6">
+        <v>354.02</v>
+      </c>
+      <c r="L14" s="6">
+        <v>426.19</v>
+      </c>
+      <c r="M14" s="6">
+        <v>297.77999999999997</v>
+      </c>
+      <c r="N14" s="6">
+        <v>357.68</v>
+      </c>
+      <c r="O14" s="6">
+        <v>235.77</v>
+      </c>
+      <c r="P14" s="6">
+        <v>317.27999999999997</v>
+      </c>
+      <c r="Q14" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>304.98399999999998</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6">
+        <v>179.18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>189.69</v>
+      </c>
+      <c r="D15" s="6">
+        <v>173.97</v>
+      </c>
+      <c r="E15" s="6">
+        <v>382.74</v>
+      </c>
+      <c r="F15" s="6">
+        <v>179.73</v>
+      </c>
+      <c r="G15" s="6">
+        <v>464.53</v>
+      </c>
+      <c r="H15" s="6">
+        <v>303.81</v>
+      </c>
+      <c r="I15" s="6">
+        <v>350.96</v>
+      </c>
+      <c r="J15" s="6">
+        <v>418.71</v>
+      </c>
+      <c r="K15" s="6">
+        <v>351.66</v>
+      </c>
+      <c r="L15" s="6">
+        <v>386.35</v>
+      </c>
+      <c r="M15" s="6">
+        <v>296.94</v>
+      </c>
+      <c r="N15" s="6">
+        <v>325.74</v>
+      </c>
+      <c r="O15" s="6">
+        <v>236.58</v>
+      </c>
+      <c r="P15" s="6">
+        <v>324.33</v>
+      </c>
+      <c r="Q15" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>304.32799999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6">
+        <v>166.91</v>
+      </c>
+      <c r="C16" s="9">
+        <v>167.92</v>
+      </c>
+      <c r="D16" s="9">
+        <v>164.55</v>
+      </c>
+      <c r="E16" s="9">
+        <v>328.63</v>
+      </c>
+      <c r="F16" s="9">
+        <v>143.74</v>
+      </c>
+      <c r="G16" s="9">
+        <v>484.96</v>
+      </c>
+      <c r="H16" s="9">
+        <v>261.08999999999997</v>
+      </c>
+      <c r="I16" s="9">
+        <v>330.21</v>
+      </c>
+      <c r="J16" s="9">
+        <v>378.88</v>
+      </c>
+      <c r="K16" s="9">
+        <v>330.9</v>
+      </c>
+      <c r="L16" s="9">
+        <v>447.99</v>
+      </c>
+      <c r="M16" s="9">
+        <v>304.32</v>
+      </c>
+      <c r="N16" s="9">
+        <v>357.12</v>
+      </c>
+      <c r="O16" s="9">
+        <v>277.07</v>
+      </c>
+      <c r="P16" s="6">
+        <v>310.44</v>
+      </c>
+      <c r="Q16" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>296.98199999999997</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C12">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="C3:C16">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1880,8 +2113,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="E3:E16">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1892,8 +2125,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E12">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="B3:B16">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1904,8 +2137,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F12">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="D3:D16">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1916,8 +2149,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G12">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="F3:F16">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1928,8 +2161,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H4 H10">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="G3:G16">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1940,8 +2173,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P5">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="H3:H16">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1952,115 +2185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O5 O10">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N5 N10">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M12">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L5 L10">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K5 K10">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J4">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I12">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q12">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B12">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D10">
+  <conditionalFormatting sqref="I3:I16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2072,8 +2197,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H9">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="J3:J16">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2084,8 +2209,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J10">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="K3:K16">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2096,8 +2221,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K9">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="L3:L16">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2108,8 +2233,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L9">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="M3:M16">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2120,8 +2245,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N9">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="N3:N16">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2132,8 +2257,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O9">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="O3:O16">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2144,8 +2269,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P10">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="P3:P16">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q16">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/files/results.xlsx
+++ b/files/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\Digievolucion\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BF06C-EE80-42F4-8605-666139BC3E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DD5184-1396-47FC-967F-79B7AABBB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>chromosomeJorge1</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>{1, 3, 6, 8, 10, 14}</t>
+  </si>
+  <si>
+    <t>chromosomeRaul</t>
+  </si>
+  <si>
+    <t>chromosomeRaul2</t>
+  </si>
+  <si>
+    <t>chromosomeCarlos15_3</t>
+  </si>
+  <si>
+    <t>chromosomeMPL</t>
+  </si>
+  <si>
+    <t>chromosomeCarlos15_4</t>
+  </si>
+  <si>
+    <t>{1, 2, 6, 7, 8, 9, 11, 13}</t>
   </si>
 </sst>
 </file>
@@ -329,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,11 +376,377 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -447,370 +831,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -922,9 +942,1684 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Fitness 1+1</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>251.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>446.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>479.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>325.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>376.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>369.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>525.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>462.78600000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-7497-45FA-9476-A33BFAF74754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>chromosomeCarlos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>279.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>295.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>374.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>395.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>417.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>417.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>377.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>311.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>317.59866666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7497-45FA-9476-A33BFAF74754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>chromosomeCarlos15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>179.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>464.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>303.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>418.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>351.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>296.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>325.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>236.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>324.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>304.32799999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7497-45FA-9476-A33BFAF74754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>chromosomeCarlos2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>211.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>448.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>278.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>338.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>414.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>426.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>297.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>357.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>317.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>304.98399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7497-45FA-9476-A33BFAF74754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>chromosomeCarlos15_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>166.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>484.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>261.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>378.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>330.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>447.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>304.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>357.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>277.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>310.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>296.98199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7497-45FA-9476-A33BFAF74754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>chromosomeJorge2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>159.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>482.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>343.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>382.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>343.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>248.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>292.54000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7497-45FA-9476-A33BFAF74754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="545364400"/>
+        <c:axId val="545344016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="545364400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545344016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545344016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545364400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>153458</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467783</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166158</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75CA5D8-B1E4-426B-A560-074200025C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}" name="Table1" displayName="Table1" ref="A2:Q16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A2:Q16" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}" name="Table1" displayName="Table1" ref="A2:Q21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:Q21" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -945,22 +2640,22 @@
   </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{83342CD1-3207-424D-BF4E-5884CA5C5C5A}" name="Model" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{F73BD6E6-80F1-4E55-A37D-A2B257F74134}" name="Map 0" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2F7B3B44-6101-4CD9-849C-C445B532E80D}" name="Map 1" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{0E3F57E6-AC19-4812-BA3C-007211C76514}" name="Map 2" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{37139713-BDCE-49D8-9FC1-641524B486E6}" name="Map 3" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{D024F6F3-0F24-4674-882F-D83DD1138804}" name="Map 4" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{74446B40-6A27-4FD6-8AF1-C282182D48E5}" name="Map 5" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{9BADCBF4-A1B2-4D01-B4C4-FF537BDF38BE}" name="Map 6" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{46C3F92D-D9B4-41FD-BB07-0E2C0946E73D}" name="Map 7" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{2B32E458-3379-4DB3-907F-9B4531E69142}" name="Map 8" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{3C93BE20-B93F-4F49-80EB-93CD30F87DC3}" name="Map 9" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{71477164-69AD-4967-8E8B-D1162DD1148F}" name="Map 10" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{BCEDDECE-BF9C-40A3-BFE6-27514C89EBD1}" name="Map 11" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{52D0F212-A73F-4F9A-A7FD-DB408A2494CE}" name="Map 12" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{33536C40-8D2A-453D-AB8D-6E002F262075}" name="Map 13" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{3B1FC886-981A-40F4-8C66-EE4A4151FD4A}" name="Map 14" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{020A042A-A175-4E96-A7B8-C7E12C90CBD0}" name="Average" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{F73BD6E6-80F1-4E55-A37D-A2B257F74134}" name="Map 0" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2F7B3B44-6101-4CD9-849C-C445B532E80D}" name="Map 1" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0E3F57E6-AC19-4812-BA3C-007211C76514}" name="Map 2" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{37139713-BDCE-49D8-9FC1-641524B486E6}" name="Map 3" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D024F6F3-0F24-4674-882F-D83DD1138804}" name="Map 4" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{74446B40-6A27-4FD6-8AF1-C282182D48E5}" name="Map 5" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{9BADCBF4-A1B2-4D01-B4C4-FF537BDF38BE}" name="Map 6" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{46C3F92D-D9B4-41FD-BB07-0E2C0946E73D}" name="Map 7" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{2B32E458-3379-4DB3-907F-9B4531E69142}" name="Map 8" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{3C93BE20-B93F-4F49-80EB-93CD30F87DC3}" name="Map 9" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{71477164-69AD-4967-8E8B-D1162DD1148F}" name="Map 10" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{BCEDDECE-BF9C-40A3-BFE6-27514C89EBD1}" name="Map 11" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52D0F212-A73F-4F9A-A7FD-DB408A2494CE}" name="Map 12" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{33536C40-8D2A-453D-AB8D-6E002F262075}" name="Map 13" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{3B1FC886-981A-40F4-8C66-EE4A4151FD4A}" name="Map 14" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{020A042A-A175-4E96-A7B8-C7E12C90CBD0}" name="Average" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1231,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T16"/>
+  <dimension ref="A2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,64 +3739,345 @@
         <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
         <v>304.32799999999992</v>
       </c>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="12">
         <v>166.91</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <v>167.92</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="12">
         <v>164.55</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="12">
         <v>328.63</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="12">
         <v>143.74</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="12">
         <v>484.96</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="12">
         <v>261.08999999999997</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="12">
         <v>330.21</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="12">
         <v>378.88</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="12">
         <v>330.9</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="12">
         <v>447.99</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="12">
         <v>304.32</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="12">
         <v>357.12</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="12">
         <v>277.07</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="12">
         <v>310.44</v>
       </c>
       <c r="Q16" s="11">
         <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
         <v>296.98199999999997</v>
       </c>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13">
+        <v>165.77</v>
+      </c>
+      <c r="C17" s="13">
+        <v>169.48</v>
+      </c>
+      <c r="D17" s="13">
+        <v>156.93</v>
+      </c>
+      <c r="E17" s="13">
+        <v>475.34</v>
+      </c>
+      <c r="F17" s="13">
+        <v>154.58000000000001</v>
+      </c>
+      <c r="G17" s="13">
+        <v>443.05</v>
+      </c>
+      <c r="H17" s="13">
+        <v>266.08999999999997</v>
+      </c>
+      <c r="I17" s="13">
+        <v>333.29</v>
+      </c>
+      <c r="J17" s="13">
+        <v>339.92</v>
+      </c>
+      <c r="K17" s="13">
+        <v>364.88</v>
+      </c>
+      <c r="L17" s="13">
+        <v>435.58</v>
+      </c>
+      <c r="M17" s="13">
+        <v>337.48</v>
+      </c>
+      <c r="N17" s="13">
+        <v>513.04999999999995</v>
+      </c>
+      <c r="O17" s="13">
+        <v>345.37</v>
+      </c>
+      <c r="P17" s="13">
+        <v>296.2</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>319.80066666666664</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="13">
+        <v>228.8</v>
+      </c>
+      <c r="C18" s="13">
+        <v>207.67</v>
+      </c>
+      <c r="D18" s="13">
+        <v>187.5</v>
+      </c>
+      <c r="E18" s="13">
+        <v>405.93</v>
+      </c>
+      <c r="F18" s="13">
+        <v>180.39</v>
+      </c>
+      <c r="G18" s="13">
+        <v>585.16</v>
+      </c>
+      <c r="H18" s="13">
+        <v>250.9</v>
+      </c>
+      <c r="I18" s="13">
+        <v>362.43</v>
+      </c>
+      <c r="J18" s="13">
+        <v>388.74</v>
+      </c>
+      <c r="K18" s="13">
+        <v>350.02</v>
+      </c>
+      <c r="L18" s="13">
+        <v>573.97</v>
+      </c>
+      <c r="M18" s="13">
+        <v>330.8</v>
+      </c>
+      <c r="N18" s="13">
+        <v>411.47</v>
+      </c>
+      <c r="O18" s="13">
+        <v>315.67</v>
+      </c>
+      <c r="P18" s="13">
+        <v>318.35000000000002</v>
+      </c>
+      <c r="Q18" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>339.85333333333335</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="13">
+        <v>177.69</v>
+      </c>
+      <c r="C19" s="13">
+        <v>158.79</v>
+      </c>
+      <c r="D19" s="13">
+        <v>173.24</v>
+      </c>
+      <c r="E19" s="13">
+        <v>413.66</v>
+      </c>
+      <c r="F19" s="13">
+        <v>157.99</v>
+      </c>
+      <c r="G19" s="13">
+        <v>456.55</v>
+      </c>
+      <c r="H19" s="13">
+        <v>291.43</v>
+      </c>
+      <c r="I19" s="13">
+        <v>322.97000000000003</v>
+      </c>
+      <c r="J19" s="13">
+        <v>372.77</v>
+      </c>
+      <c r="K19" s="13">
+        <v>351.88</v>
+      </c>
+      <c r="L19" s="13">
+        <v>414.53</v>
+      </c>
+      <c r="M19" s="13">
+        <v>346.99</v>
+      </c>
+      <c r="N19" s="13">
+        <v>371.46</v>
+      </c>
+      <c r="O19" s="13">
+        <v>234.89</v>
+      </c>
+      <c r="P19" s="13">
+        <v>291.52</v>
+      </c>
+      <c r="Q19" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>302.42400000000004</v>
+      </c>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13">
+        <v>159.25</v>
+      </c>
+      <c r="C20" s="13">
+        <v>169.64</v>
+      </c>
+      <c r="D20" s="13">
+        <v>191.31</v>
+      </c>
+      <c r="E20" s="13">
+        <v>381.59</v>
+      </c>
+      <c r="F20" s="13">
+        <v>132.82</v>
+      </c>
+      <c r="G20" s="13">
+        <v>482.22</v>
+      </c>
+      <c r="H20" s="13">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="I20" s="13">
+        <v>343.38</v>
+      </c>
+      <c r="J20" s="13">
+        <v>353.63</v>
+      </c>
+      <c r="K20" s="13">
+        <v>302.64999999999998</v>
+      </c>
+      <c r="L20" s="13">
+        <v>382.46</v>
+      </c>
+      <c r="M20" s="13">
+        <v>343.86</v>
+      </c>
+      <c r="N20" s="13">
+        <v>327.12</v>
+      </c>
+      <c r="O20" s="13">
+        <v>248.38</v>
+      </c>
+      <c r="P20" s="13">
+        <v>305.5</v>
+      </c>
+      <c r="Q20" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>292.54000000000002</v>
+      </c>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13">
+        <v>272.79000000000002</v>
+      </c>
+      <c r="C21" s="13">
+        <v>190.29</v>
+      </c>
+      <c r="D21" s="13">
+        <v>249.96</v>
+      </c>
+      <c r="E21" s="13">
+        <v>431.17</v>
+      </c>
+      <c r="F21" s="13">
+        <v>148.75</v>
+      </c>
+      <c r="G21" s="13">
+        <v>586.79</v>
+      </c>
+      <c r="H21" s="13">
+        <v>273.98</v>
+      </c>
+      <c r="I21" s="13">
+        <v>319.3</v>
+      </c>
+      <c r="J21" s="13">
+        <v>377.47</v>
+      </c>
+      <c r="K21" s="13">
+        <v>374.58</v>
+      </c>
+      <c r="L21" s="13">
+        <v>354.47</v>
+      </c>
+      <c r="M21" s="13">
+        <v>317.05</v>
+      </c>
+      <c r="N21" s="13">
+        <v>484.09</v>
+      </c>
+      <c r="O21" s="13">
+        <v>287.8</v>
+      </c>
+      <c r="P21" s="13">
+        <v>326.98</v>
+      </c>
+      <c r="Q21" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
+        <v>333.03133333333341</v>
+      </c>
+      <c r="S21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C16">
+  <conditionalFormatting sqref="C3:C21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2113,7 +4089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E16">
+  <conditionalFormatting sqref="E3:E21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2125,7 +4101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B16">
+  <conditionalFormatting sqref="B3:B21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2137,7 +4113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D16">
+  <conditionalFormatting sqref="D3:D21">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2149,7 +4125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F16">
+  <conditionalFormatting sqref="F3:F21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2161,7 +4137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G16">
+  <conditionalFormatting sqref="G3:G21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2173,7 +4149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H16">
+  <conditionalFormatting sqref="H3:H21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2185,7 +4161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I16">
+  <conditionalFormatting sqref="I3:I21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2197,7 +4173,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J16">
+  <conditionalFormatting sqref="J3:J21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2209,7 +4185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
+  <conditionalFormatting sqref="K3:K21">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2221,7 +4197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L16">
+  <conditionalFormatting sqref="L3:L21">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2233,7 +4209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M16">
+  <conditionalFormatting sqref="M3:M21">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2245,7 +4221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N16">
+  <conditionalFormatting sqref="N3:N21">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2257,7 +4233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O16">
+  <conditionalFormatting sqref="O3:O21">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2269,7 +4245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P16">
+  <conditionalFormatting sqref="P3:P21">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2281,7 +4257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q16">
+  <conditionalFormatting sqref="Q3:Q21">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2294,8 +4270,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/results.xlsx
+++ b/files/results.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\Digievolucion\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DD5184-1396-47FC-967F-79B7AABBB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>chromosomeJorge1</t>
   </si>
@@ -169,12 +163,24 @@
   </si>
   <si>
     <t>{1, 2, 6, 7, 8, 9, 11, 13}</t>
+  </si>
+  <si>
+    <t>Ciclo</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>chromosomeCarlos3</t>
+  </si>
+  <si>
+    <t>chromosomeCarlos4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +216,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +227,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -347,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +390,21 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +418,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -417,7 +443,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -447,7 +472,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -475,7 +499,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -503,7 +526,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -531,7 +553,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -559,7 +580,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -587,7 +607,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -615,7 +634,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -643,7 +661,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -671,7 +688,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -699,7 +715,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -727,7 +742,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -755,7 +769,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -783,7 +796,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -811,7 +823,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -841,7 +852,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -889,7 +899,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -914,7 +923,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -943,9 +951,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -987,6 +995,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -995,26 +1004,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1104,7 +1093,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001C-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -1247,7 +1236,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -1390,7 +1379,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -1533,7 +1522,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -1676,7 +1665,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -1819,7 +1808,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -1834,11 +1823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="545364400"/>
-        <c:axId val="545344016"/>
+        <c:axId val="200990208"/>
+        <c:axId val="134798080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="545364400"/>
+        <c:axId val="200990208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1870,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545344016"/>
+        <c:crossAx val="134798080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1889,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545344016"/>
+        <c:axId val="134798080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1929,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545364400"/>
+        <c:crossAx val="200990208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1954,6 +1943,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2020,562 +2010,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2596,7 +2030,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75CA5D8-B1E4-426B-A560-074200025C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E75CA5D8-B1E4-426B-A560-074200025C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,8 +2052,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}" name="Table1" displayName="Table1" ref="A2:Q21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A2:Q21" xr:uid="{FE955E96-146C-4D29-9D73-640EF3E1413E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A2:Q21">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2639,23 +2073,23 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{83342CD1-3207-424D-BF4E-5884CA5C5C5A}" name="Model" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{F73BD6E6-80F1-4E55-A37D-A2B257F74134}" name="Map 0" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2F7B3B44-6101-4CD9-849C-C445B532E80D}" name="Map 1" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{0E3F57E6-AC19-4812-BA3C-007211C76514}" name="Map 2" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{37139713-BDCE-49D8-9FC1-641524B486E6}" name="Map 3" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D024F6F3-0F24-4674-882F-D83DD1138804}" name="Map 4" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{74446B40-6A27-4FD6-8AF1-C282182D48E5}" name="Map 5" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{9BADCBF4-A1B2-4D01-B4C4-FF537BDF38BE}" name="Map 6" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{46C3F92D-D9B4-41FD-BB07-0E2C0946E73D}" name="Map 7" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{2B32E458-3379-4DB3-907F-9B4531E69142}" name="Map 8" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{3C93BE20-B93F-4F49-80EB-93CD30F87DC3}" name="Map 9" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{71477164-69AD-4967-8E8B-D1162DD1148F}" name="Map 10" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{BCEDDECE-BF9C-40A3-BFE6-27514C89EBD1}" name="Map 11" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52D0F212-A73F-4F9A-A7FD-DB408A2494CE}" name="Map 12" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{33536C40-8D2A-453D-AB8D-6E002F262075}" name="Map 13" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{3B1FC886-981A-40F4-8C66-EE4A4151FD4A}" name="Map 14" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{020A042A-A175-4E96-A7B8-C7E12C90CBD0}" name="Average" dataDxfId="0">
+    <tableColumn id="1" name="Model" dataDxfId="16"/>
+    <tableColumn id="2" name="Map 0" dataDxfId="15"/>
+    <tableColumn id="3" name="Map 1" dataDxfId="14"/>
+    <tableColumn id="4" name="Map 2" dataDxfId="13"/>
+    <tableColumn id="5" name="Map 3" dataDxfId="12"/>
+    <tableColumn id="6" name="Map 4" dataDxfId="11"/>
+    <tableColumn id="7" name="Map 5" dataDxfId="10"/>
+    <tableColumn id="8" name="Map 6" dataDxfId="9"/>
+    <tableColumn id="9" name="Map 7" dataDxfId="8"/>
+    <tableColumn id="10" name="Map 8" dataDxfId="7"/>
+    <tableColumn id="11" name="Map 9" dataDxfId="6"/>
+    <tableColumn id="12" name="Map 10" dataDxfId="5"/>
+    <tableColumn id="13" name="Map 11" dataDxfId="4"/>
+    <tableColumn id="14" name="Map 12" dataDxfId="3"/>
+    <tableColumn id="15" name="Map 13" dataDxfId="2"/>
+    <tableColumn id="16" name="Map 14" dataDxfId="1"/>
+    <tableColumn id="17" name="Average" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2706,7 +2140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2741,7 +2175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2918,28 +2352,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="9.7109375" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="9.7265625" customWidth="1"/>
+    <col min="19" max="19" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="34" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2997,7 +2434,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3054,7 +2491,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -3111,7 +2548,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3168,7 +2605,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -3226,8 +2663,50 @@
         <v>26</v>
       </c>
       <c r="T6" s="4"/>
+      <c r="U6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="14">
+        <v>1</v>
+      </c>
+      <c r="X6" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>78</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>82</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>137</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>152</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>165</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>194</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -3284,8 +2763,48 @@
         <v>28</v>
       </c>
       <c r="T7" s="4"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="14">
+        <v>325.56</v>
+      </c>
+      <c r="X7" s="14">
+        <v>323.77</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>292.81</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>291.55</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>280.76</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>274.67</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>270.58999999999997</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>246.75</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>241.08</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>237.06</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>234.19</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>231.78</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -3342,8 +2861,38 @@
         <v>24</v>
       </c>
       <c r="T8" s="4"/>
+      <c r="U8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>57</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>79</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>157</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
@@ -3400,8 +2949,36 @@
         <v>27</v>
       </c>
       <c r="T9" s="4"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="14">
+        <v>359.62</v>
+      </c>
+      <c r="X9" s="14">
+        <v>303.95999999999998</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>261.77</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>252.05</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>247.84</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>238</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>230.84</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>227.91</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -3458,7 +3035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -3515,7 +3092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
@@ -3572,7 +3149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -3629,7 +3206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -3686,7 +3263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -3741,7 +3318,7 @@
       </c>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
@@ -3796,7 +3373,7 @@
       </c>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -3853,7 +3430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
@@ -3910,7 +3487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
@@ -3965,7 +3542,7 @@
       </c>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>42</v>
       </c>
@@ -4020,7 +3597,7 @@
       </c>
       <c r="S20" s="6"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
@@ -4076,6 +3653,10 @@
       <c r="S21" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:C21">
     <cfRule type="colorScale" priority="2">

--- a/files/results.xlsx
+++ b/files/results.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\Digievolucion\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd4cb6b4fcd21a3/Escritorio/4º CURSO/ALGORITMOS GENETICOS Y EVOLUTIVOS/PRACTICAS/PRACTICA FINAL/Digievolucion/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D630D5B9-D664-498C-9C09-49600E41C3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7BF7AD-0D71-45FE-8D04-1BAE4B677DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16365" yWindow="3570" windowWidth="14940" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>chromosomeJorge1</t>
   </si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>J5_350</t>
+  </si>
+  <si>
+    <t>chromosomeRaul3</t>
+  </si>
+  <si>
+    <t>chromosomeRaul4</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,16 +423,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,7 +980,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2038,7 +2038,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9197,4037 +9197,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="25">
-          <cell r="P25">
-            <v>311</v>
-          </cell>
-          <cell r="Q25" t="str">
-            <v>Carlos3</v>
-          </cell>
-          <cell r="R25" t="str">
-            <v>Carlos4</v>
-          </cell>
-          <cell r="S25">
-            <v>316</v>
-          </cell>
-          <cell r="T25">
-            <v>350</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="O26">
-            <v>0</v>
-          </cell>
-          <cell r="P26">
-            <v>318.052001953125</v>
-          </cell>
-          <cell r="Q26">
-            <v>325.56</v>
-          </cell>
-          <cell r="R26">
-            <v>359.62</v>
-          </cell>
-          <cell r="S26">
-            <v>666.90997314453102</v>
-          </cell>
-          <cell r="T26">
-            <v>442.454010009765</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="O27">
-            <v>1</v>
-          </cell>
-          <cell r="P27">
-            <v>318.052001953125</v>
-          </cell>
-          <cell r="Q27">
-            <v>325.56</v>
-          </cell>
-          <cell r="R27">
-            <v>359.62</v>
-          </cell>
-          <cell r="S27">
-            <v>521.01605224609295</v>
-          </cell>
-          <cell r="T27">
-            <v>396.31100463867102</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="O28">
-            <v>2</v>
-          </cell>
-          <cell r="P28">
-            <v>318.052001953125</v>
-          </cell>
-          <cell r="Q28">
-            <v>325.56</v>
-          </cell>
-          <cell r="R28">
-            <v>359.62</v>
-          </cell>
-          <cell r="S28">
-            <v>319.45901489257801</v>
-          </cell>
-          <cell r="T28">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="O29">
-            <v>3</v>
-          </cell>
-          <cell r="P29">
-            <v>318.052001953125</v>
-          </cell>
-          <cell r="Q29">
-            <v>323.77</v>
-          </cell>
-          <cell r="R29">
-            <v>359.62</v>
-          </cell>
-          <cell r="S29">
-            <v>319.45901489257801</v>
-          </cell>
-          <cell r="T29">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="O30">
-            <v>4</v>
-          </cell>
-          <cell r="P30">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q30">
-            <v>323.77</v>
-          </cell>
-          <cell r="R30">
-            <v>303.95999999999998</v>
-          </cell>
-          <cell r="S30">
-            <v>319.45901489257801</v>
-          </cell>
-          <cell r="T30">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="O31">
-            <v>5</v>
-          </cell>
-          <cell r="P31">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q31">
-            <v>323.77</v>
-          </cell>
-          <cell r="R31">
-            <v>303.95999999999998</v>
-          </cell>
-          <cell r="S31">
-            <v>312.75598144531199</v>
-          </cell>
-          <cell r="T31">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="O32">
-            <v>6</v>
-          </cell>
-          <cell r="P32">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q32">
-            <v>323.77</v>
-          </cell>
-          <cell r="R32">
-            <v>303.95999999999998</v>
-          </cell>
-          <cell r="S32">
-            <v>312.75598144531199</v>
-          </cell>
-          <cell r="T32">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="O33">
-            <v>7</v>
-          </cell>
-          <cell r="P33">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q33">
-            <v>292.81</v>
-          </cell>
-          <cell r="R33">
-            <v>252.05</v>
-          </cell>
-          <cell r="S33">
-            <v>312.75598144531199</v>
-          </cell>
-          <cell r="T33">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="O34">
-            <v>8</v>
-          </cell>
-          <cell r="P34">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q34">
-            <v>292.81</v>
-          </cell>
-          <cell r="R34">
-            <v>252.05</v>
-          </cell>
-          <cell r="S34">
-            <v>312.75598144531199</v>
-          </cell>
-          <cell r="T34">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="O35">
-            <v>9</v>
-          </cell>
-          <cell r="P35">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q35">
-            <v>292.81</v>
-          </cell>
-          <cell r="R35">
-            <v>252.05</v>
-          </cell>
-          <cell r="S35">
-            <v>312.75598144531199</v>
-          </cell>
-          <cell r="T35">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="O36">
-            <v>10</v>
-          </cell>
-          <cell r="P36">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q36">
-            <v>292.81</v>
-          </cell>
-          <cell r="R36">
-            <v>252.05</v>
-          </cell>
-          <cell r="S36">
-            <v>310.64498901367102</v>
-          </cell>
-          <cell r="T36">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="O37">
-            <v>11</v>
-          </cell>
-          <cell r="P37">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q37">
-            <v>291.55</v>
-          </cell>
-          <cell r="R37">
-            <v>252.05</v>
-          </cell>
-          <cell r="S37">
-            <v>310.64498901367102</v>
-          </cell>
-          <cell r="T37">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="O38">
-            <v>12</v>
-          </cell>
-          <cell r="P38">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q38">
-            <v>291.55</v>
-          </cell>
-          <cell r="R38">
-            <v>252.05</v>
-          </cell>
-          <cell r="S38">
-            <v>310.64498901367102</v>
-          </cell>
-          <cell r="T38">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="O39">
-            <v>13</v>
-          </cell>
-          <cell r="P39">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q39">
-            <v>291.55</v>
-          </cell>
-          <cell r="R39">
-            <v>252.05</v>
-          </cell>
-          <cell r="S39">
-            <v>304.46398925781199</v>
-          </cell>
-          <cell r="T39">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="O40">
-            <v>14</v>
-          </cell>
-          <cell r="P40">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q40">
-            <v>291.55</v>
-          </cell>
-          <cell r="R40">
-            <v>252.05</v>
-          </cell>
-          <cell r="S40">
-            <v>301.28802490234301</v>
-          </cell>
-          <cell r="T40">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="O41">
-            <v>15</v>
-          </cell>
-          <cell r="P41">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q41">
-            <v>291.55</v>
-          </cell>
-          <cell r="R41">
-            <v>252.05</v>
-          </cell>
-          <cell r="S41">
-            <v>301.28802490234301</v>
-          </cell>
-          <cell r="T41">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="O42">
-            <v>16</v>
-          </cell>
-          <cell r="P42">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q42">
-            <v>291.55</v>
-          </cell>
-          <cell r="R42">
-            <v>252.05</v>
-          </cell>
-          <cell r="S42">
-            <v>301.28802490234301</v>
-          </cell>
-          <cell r="T42">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="O43">
-            <v>17</v>
-          </cell>
-          <cell r="P43">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q43">
-            <v>291.55</v>
-          </cell>
-          <cell r="R43">
-            <v>252.05</v>
-          </cell>
-          <cell r="S43">
-            <v>295.94400024414</v>
-          </cell>
-          <cell r="T43">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="O44">
-            <v>18</v>
-          </cell>
-          <cell r="P44">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q44">
-            <v>291.55</v>
-          </cell>
-          <cell r="R44">
-            <v>252.05</v>
-          </cell>
-          <cell r="S44">
-            <v>295.94400024414</v>
-          </cell>
-          <cell r="T44">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="O45">
-            <v>19</v>
-          </cell>
-          <cell r="P45">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q45">
-            <v>291.55</v>
-          </cell>
-          <cell r="R45">
-            <v>252.05</v>
-          </cell>
-          <cell r="S45">
-            <v>295.94400024414</v>
-          </cell>
-          <cell r="T45">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="O46">
-            <v>20</v>
-          </cell>
-          <cell r="P46">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q46">
-            <v>291.55</v>
-          </cell>
-          <cell r="R46">
-            <v>252.05</v>
-          </cell>
-          <cell r="S46">
-            <v>295.94400024414</v>
-          </cell>
-          <cell r="T46">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="O47">
-            <v>21</v>
-          </cell>
-          <cell r="P47">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q47">
-            <v>291.55</v>
-          </cell>
-          <cell r="R47">
-            <v>252.05</v>
-          </cell>
-          <cell r="S47">
-            <v>295.94400024414</v>
-          </cell>
-          <cell r="T47">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="O48">
-            <v>22</v>
-          </cell>
-          <cell r="P48">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q48">
-            <v>291.55</v>
-          </cell>
-          <cell r="R48">
-            <v>252.05</v>
-          </cell>
-          <cell r="S48">
-            <v>295.94400024414</v>
-          </cell>
-          <cell r="T48">
-            <v>335.98300170898398</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="O49">
-            <v>23</v>
-          </cell>
-          <cell r="P49">
-            <v>317.33599853515602</v>
-          </cell>
-          <cell r="Q49">
-            <v>291.55</v>
-          </cell>
-          <cell r="R49">
-            <v>252.05</v>
-          </cell>
-          <cell r="S49">
-            <v>295.94400024414</v>
-          </cell>
-          <cell r="T49">
-            <v>333.67303466796801</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="O50">
-            <v>24</v>
-          </cell>
-          <cell r="P50">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q50">
-            <v>291.55</v>
-          </cell>
-          <cell r="R50">
-            <v>252.05</v>
-          </cell>
-          <cell r="S50">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T50">
-            <v>333.67303466796801</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="O51">
-            <v>25</v>
-          </cell>
-          <cell r="P51">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q51">
-            <v>291.55</v>
-          </cell>
-          <cell r="R51">
-            <v>252.05</v>
-          </cell>
-          <cell r="S51">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T51">
-            <v>330.12701416015602</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="O52">
-            <v>26</v>
-          </cell>
-          <cell r="P52">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q52">
-            <v>291.55</v>
-          </cell>
-          <cell r="R52">
-            <v>252.05</v>
-          </cell>
-          <cell r="S52">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T52">
-            <v>326.59503173828102</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="O53">
-            <v>27</v>
-          </cell>
-          <cell r="P53">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q53">
-            <v>291.55</v>
-          </cell>
-          <cell r="R53">
-            <v>252.05</v>
-          </cell>
-          <cell r="S53">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T53">
-            <v>326.59503173828102</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="O54">
-            <v>28</v>
-          </cell>
-          <cell r="P54">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q54">
-            <v>291.55</v>
-          </cell>
-          <cell r="R54">
-            <v>252.05</v>
-          </cell>
-          <cell r="S54">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T54">
-            <v>326.59503173828102</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="O55">
-            <v>29</v>
-          </cell>
-          <cell r="P55">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q55">
-            <v>291.55</v>
-          </cell>
-          <cell r="R55">
-            <v>252.05</v>
-          </cell>
-          <cell r="S55">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T55">
-            <v>322.08798217773398</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="O56">
-            <v>30</v>
-          </cell>
-          <cell r="P56">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q56">
-            <v>291.55</v>
-          </cell>
-          <cell r="R56">
-            <v>252.05</v>
-          </cell>
-          <cell r="S56">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T56">
-            <v>322.08798217773398</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="O57">
-            <v>31</v>
-          </cell>
-          <cell r="P57">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q57">
-            <v>291.55</v>
-          </cell>
-          <cell r="R57">
-            <v>252.05</v>
-          </cell>
-          <cell r="S57">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T57">
-            <v>322.08798217773398</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="O58">
-            <v>32</v>
-          </cell>
-          <cell r="P58">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q58">
-            <v>291.55</v>
-          </cell>
-          <cell r="R58">
-            <v>247.84</v>
-          </cell>
-          <cell r="S58">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T58">
-            <v>322.08798217773398</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="O59">
-            <v>33</v>
-          </cell>
-          <cell r="P59">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q59">
-            <v>291.55</v>
-          </cell>
-          <cell r="R59">
-            <v>247.84</v>
-          </cell>
-          <cell r="S59">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T59">
-            <v>322.08798217773398</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="O60">
-            <v>34</v>
-          </cell>
-          <cell r="P60">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q60">
-            <v>291.55</v>
-          </cell>
-          <cell r="R60">
-            <v>247.84</v>
-          </cell>
-          <cell r="S60">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T60">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="O61">
-            <v>35</v>
-          </cell>
-          <cell r="P61">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q61">
-            <v>291.55</v>
-          </cell>
-          <cell r="R61">
-            <v>247.84</v>
-          </cell>
-          <cell r="S61">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T61">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="O62">
-            <v>36</v>
-          </cell>
-          <cell r="P62">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q62">
-            <v>291.55</v>
-          </cell>
-          <cell r="R62">
-            <v>247.84</v>
-          </cell>
-          <cell r="S62">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T62">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="O63">
-            <v>37</v>
-          </cell>
-          <cell r="P63">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q63">
-            <v>291.55</v>
-          </cell>
-          <cell r="R63">
-            <v>247.84</v>
-          </cell>
-          <cell r="S63">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T63">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="O64">
-            <v>38</v>
-          </cell>
-          <cell r="P64">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q64">
-            <v>291.55</v>
-          </cell>
-          <cell r="R64">
-            <v>247.84</v>
-          </cell>
-          <cell r="S64">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T64">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="O65">
-            <v>39</v>
-          </cell>
-          <cell r="P65">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q65">
-            <v>291.55</v>
-          </cell>
-          <cell r="R65">
-            <v>247.84</v>
-          </cell>
-          <cell r="S65">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T65">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="O66">
-            <v>40</v>
-          </cell>
-          <cell r="P66">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q66">
-            <v>291.55</v>
-          </cell>
-          <cell r="R66">
-            <v>247.84</v>
-          </cell>
-          <cell r="S66">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T66">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="O67">
-            <v>41</v>
-          </cell>
-          <cell r="P67">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q67">
-            <v>291.55</v>
-          </cell>
-          <cell r="R67">
-            <v>247.84</v>
-          </cell>
-          <cell r="S67">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T67">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="O68">
-            <v>42</v>
-          </cell>
-          <cell r="P68">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q68">
-            <v>291.55</v>
-          </cell>
-          <cell r="R68">
-            <v>247.84</v>
-          </cell>
-          <cell r="S68">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T68">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="O69">
-            <v>43</v>
-          </cell>
-          <cell r="P69">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q69">
-            <v>291.55</v>
-          </cell>
-          <cell r="R69">
-            <v>247.84</v>
-          </cell>
-          <cell r="S69">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T69">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="O70">
-            <v>44</v>
-          </cell>
-          <cell r="P70">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q70">
-            <v>274.67</v>
-          </cell>
-          <cell r="R70">
-            <v>247.84</v>
-          </cell>
-          <cell r="S70">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T70">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="O71">
-            <v>45</v>
-          </cell>
-          <cell r="P71">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q71">
-            <v>274.67</v>
-          </cell>
-          <cell r="R71">
-            <v>247.84</v>
-          </cell>
-          <cell r="S71">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T71">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="O72">
-            <v>46</v>
-          </cell>
-          <cell r="P72">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q72">
-            <v>274.67</v>
-          </cell>
-          <cell r="R72">
-            <v>247.84</v>
-          </cell>
-          <cell r="S72">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T72">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="O73">
-            <v>47</v>
-          </cell>
-          <cell r="P73">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q73">
-            <v>274.67</v>
-          </cell>
-          <cell r="R73">
-            <v>247.84</v>
-          </cell>
-          <cell r="S73">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T73">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="O74">
-            <v>48</v>
-          </cell>
-          <cell r="P74">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q74">
-            <v>274.67</v>
-          </cell>
-          <cell r="R74">
-            <v>247.84</v>
-          </cell>
-          <cell r="S74">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T74">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="O75">
-            <v>49</v>
-          </cell>
-          <cell r="P75">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q75">
-            <v>274.67</v>
-          </cell>
-          <cell r="R75">
-            <v>247.84</v>
-          </cell>
-          <cell r="S75">
-            <v>292.23199462890602</v>
-          </cell>
-          <cell r="T75">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="O76">
-            <v>50</v>
-          </cell>
-          <cell r="P76">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q76">
-            <v>274.67</v>
-          </cell>
-          <cell r="R76">
-            <v>247.84</v>
-          </cell>
-          <cell r="S76">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T76">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="O77">
-            <v>51</v>
-          </cell>
-          <cell r="P77">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q77">
-            <v>274.67</v>
-          </cell>
-          <cell r="R77">
-            <v>247.84</v>
-          </cell>
-          <cell r="S77">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T77">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="O78">
-            <v>52</v>
-          </cell>
-          <cell r="P78">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q78">
-            <v>274.67</v>
-          </cell>
-          <cell r="R78">
-            <v>247.84</v>
-          </cell>
-          <cell r="S78">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T78">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="O79">
-            <v>53</v>
-          </cell>
-          <cell r="P79">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q79">
-            <v>274.67</v>
-          </cell>
-          <cell r="R79">
-            <v>247.84</v>
-          </cell>
-          <cell r="S79">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T79">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="O80">
-            <v>54</v>
-          </cell>
-          <cell r="P80">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q80">
-            <v>274.67</v>
-          </cell>
-          <cell r="R80">
-            <v>247.84</v>
-          </cell>
-          <cell r="S80">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T80">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="O81">
-            <v>55</v>
-          </cell>
-          <cell r="P81">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q81">
-            <v>274.67</v>
-          </cell>
-          <cell r="R81">
-            <v>247.84</v>
-          </cell>
-          <cell r="S81">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T81">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="O82">
-            <v>56</v>
-          </cell>
-          <cell r="P82">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q82">
-            <v>274.67</v>
-          </cell>
-          <cell r="R82">
-            <v>247.84</v>
-          </cell>
-          <cell r="S82">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T82">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="O83">
-            <v>57</v>
-          </cell>
-          <cell r="P83">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q83">
-            <v>274.67</v>
-          </cell>
-          <cell r="R83">
-            <v>238</v>
-          </cell>
-          <cell r="S83">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T83">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="O84">
-            <v>58</v>
-          </cell>
-          <cell r="P84">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q84">
-            <v>274.67</v>
-          </cell>
-          <cell r="R84">
-            <v>238</v>
-          </cell>
-          <cell r="S84">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T84">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="O85">
-            <v>59</v>
-          </cell>
-          <cell r="P85">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q85">
-            <v>274.67</v>
-          </cell>
-          <cell r="R85">
-            <v>238</v>
-          </cell>
-          <cell r="S85">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T85">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="O86">
-            <v>60</v>
-          </cell>
-          <cell r="P86">
-            <v>298.25100708007801</v>
-          </cell>
-          <cell r="Q86">
-            <v>274.67</v>
-          </cell>
-          <cell r="R86">
-            <v>238</v>
-          </cell>
-          <cell r="S86">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T86">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="O87">
-            <v>61</v>
-          </cell>
-          <cell r="P87">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q87">
-            <v>274.67</v>
-          </cell>
-          <cell r="R87">
-            <v>238</v>
-          </cell>
-          <cell r="S87">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T87">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="O88">
-            <v>62</v>
-          </cell>
-          <cell r="P88">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q88">
-            <v>274.67</v>
-          </cell>
-          <cell r="R88">
-            <v>238</v>
-          </cell>
-          <cell r="S88">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T88">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="O89">
-            <v>63</v>
-          </cell>
-          <cell r="P89">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q89">
-            <v>274.67</v>
-          </cell>
-          <cell r="R89">
-            <v>238</v>
-          </cell>
-          <cell r="S89">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T89">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="O90">
-            <v>64</v>
-          </cell>
-          <cell r="P90">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q90">
-            <v>274.67</v>
-          </cell>
-          <cell r="R90">
-            <v>238</v>
-          </cell>
-          <cell r="S90">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T90">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="O91">
-            <v>65</v>
-          </cell>
-          <cell r="P91">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q91">
-            <v>274.67</v>
-          </cell>
-          <cell r="R91">
-            <v>238</v>
-          </cell>
-          <cell r="S91">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T91">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="O92">
-            <v>66</v>
-          </cell>
-          <cell r="P92">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q92">
-            <v>274.67</v>
-          </cell>
-          <cell r="R92">
-            <v>238</v>
-          </cell>
-          <cell r="S92">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T92">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="O93">
-            <v>67</v>
-          </cell>
-          <cell r="P93">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q93">
-            <v>274.67</v>
-          </cell>
-          <cell r="R93">
-            <v>238</v>
-          </cell>
-          <cell r="S93">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T93">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="O94">
-            <v>68</v>
-          </cell>
-          <cell r="P94">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q94">
-            <v>274.67</v>
-          </cell>
-          <cell r="R94">
-            <v>238</v>
-          </cell>
-          <cell r="S94">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T94">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="O95">
-            <v>69</v>
-          </cell>
-          <cell r="P95">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q95">
-            <v>274.67</v>
-          </cell>
-          <cell r="R95">
-            <v>238</v>
-          </cell>
-          <cell r="S95">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T95">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="O96">
-            <v>70</v>
-          </cell>
-          <cell r="P96">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q96">
-            <v>274.67</v>
-          </cell>
-          <cell r="R96">
-            <v>238</v>
-          </cell>
-          <cell r="S96">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T96">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="O97">
-            <v>71</v>
-          </cell>
-          <cell r="P97">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q97">
-            <v>274.67</v>
-          </cell>
-          <cell r="R97">
-            <v>238</v>
-          </cell>
-          <cell r="S97">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T97">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="O98">
-            <v>72</v>
-          </cell>
-          <cell r="P98">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q98">
-            <v>274.67</v>
-          </cell>
-          <cell r="R98">
-            <v>238</v>
-          </cell>
-          <cell r="S98">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T98">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="O99">
-            <v>73</v>
-          </cell>
-          <cell r="P99">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q99">
-            <v>274.67</v>
-          </cell>
-          <cell r="R99">
-            <v>238</v>
-          </cell>
-          <cell r="S99">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T99">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="O100">
-            <v>74</v>
-          </cell>
-          <cell r="P100">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q100">
-            <v>274.67</v>
-          </cell>
-          <cell r="R100">
-            <v>238</v>
-          </cell>
-          <cell r="S100">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T100">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="O101">
-            <v>75</v>
-          </cell>
-          <cell r="P101">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q101">
-            <v>274.67</v>
-          </cell>
-          <cell r="R101">
-            <v>238</v>
-          </cell>
-          <cell r="S101">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T101">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="O102">
-            <v>76</v>
-          </cell>
-          <cell r="P102">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q102">
-            <v>274.67</v>
-          </cell>
-          <cell r="R102">
-            <v>238</v>
-          </cell>
-          <cell r="S102">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T102">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="O103">
-            <v>77</v>
-          </cell>
-          <cell r="P103">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q103">
-            <v>270.58999999999997</v>
-          </cell>
-          <cell r="R103">
-            <v>238</v>
-          </cell>
-          <cell r="S103">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T103">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="O104">
-            <v>78</v>
-          </cell>
-          <cell r="P104">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q104">
-            <v>270.58999999999997</v>
-          </cell>
-          <cell r="R104">
-            <v>238</v>
-          </cell>
-          <cell r="S104">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T104">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="O105">
-            <v>79</v>
-          </cell>
-          <cell r="P105">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q105">
-            <v>270.58999999999997</v>
-          </cell>
-          <cell r="R105">
-            <v>230.84</v>
-          </cell>
-          <cell r="S105">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T105">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="O106">
-            <v>80</v>
-          </cell>
-          <cell r="P106">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q106">
-            <v>270.58999999999997</v>
-          </cell>
-          <cell r="R106">
-            <v>230.84</v>
-          </cell>
-          <cell r="S106">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T106">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="O107">
-            <v>81</v>
-          </cell>
-          <cell r="P107">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q107">
-            <v>246.75</v>
-          </cell>
-          <cell r="R107">
-            <v>230.84</v>
-          </cell>
-          <cell r="S107">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T107">
-            <v>319.23397827148398</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="O108">
-            <v>82</v>
-          </cell>
-          <cell r="P108">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q108">
-            <v>246.75</v>
-          </cell>
-          <cell r="R108">
-            <v>230.84</v>
-          </cell>
-          <cell r="S108">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T108">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="O109">
-            <v>83</v>
-          </cell>
-          <cell r="P109">
-            <v>276.69900512695301</v>
-          </cell>
-          <cell r="Q109">
-            <v>246.75</v>
-          </cell>
-          <cell r="R109">
-            <v>230.84</v>
-          </cell>
-          <cell r="S109">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T109">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="O110">
-            <v>84</v>
-          </cell>
-          <cell r="P110">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q110">
-            <v>246.75</v>
-          </cell>
-          <cell r="R110">
-            <v>230.84</v>
-          </cell>
-          <cell r="S110">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T110">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="O111">
-            <v>85</v>
-          </cell>
-          <cell r="P111">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q111">
-            <v>246.75</v>
-          </cell>
-          <cell r="R111">
-            <v>230.84</v>
-          </cell>
-          <cell r="S111">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T111">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="O112">
-            <v>86</v>
-          </cell>
-          <cell r="P112">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q112">
-            <v>246.75</v>
-          </cell>
-          <cell r="R112">
-            <v>230.84</v>
-          </cell>
-          <cell r="S112">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T112">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="O113">
-            <v>87</v>
-          </cell>
-          <cell r="P113">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q113">
-            <v>246.75</v>
-          </cell>
-          <cell r="R113">
-            <v>230.84</v>
-          </cell>
-          <cell r="S113">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T113">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="O114">
-            <v>88</v>
-          </cell>
-          <cell r="P114">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q114">
-            <v>246.75</v>
-          </cell>
-          <cell r="R114">
-            <v>230.84</v>
-          </cell>
-          <cell r="S114">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T114">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="O115">
-            <v>89</v>
-          </cell>
-          <cell r="P115">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q115">
-            <v>246.75</v>
-          </cell>
-          <cell r="R115">
-            <v>230.84</v>
-          </cell>
-          <cell r="S115">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T115">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="O116">
-            <v>90</v>
-          </cell>
-          <cell r="P116">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q116">
-            <v>246.75</v>
-          </cell>
-          <cell r="R116">
-            <v>230.84</v>
-          </cell>
-          <cell r="S116">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T116">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="O117">
-            <v>91</v>
-          </cell>
-          <cell r="P117">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q117">
-            <v>246.75</v>
-          </cell>
-          <cell r="R117">
-            <v>230.84</v>
-          </cell>
-          <cell r="S117">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T117">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="O118">
-            <v>92</v>
-          </cell>
-          <cell r="P118">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q118">
-            <v>246.75</v>
-          </cell>
-          <cell r="R118">
-            <v>230.84</v>
-          </cell>
-          <cell r="S118">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T118">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="O119">
-            <v>93</v>
-          </cell>
-          <cell r="P119">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q119">
-            <v>246.75</v>
-          </cell>
-          <cell r="R119">
-            <v>230.84</v>
-          </cell>
-          <cell r="S119">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T119">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="O120">
-            <v>94</v>
-          </cell>
-          <cell r="P120">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q120">
-            <v>246.75</v>
-          </cell>
-          <cell r="R120">
-            <v>230.84</v>
-          </cell>
-          <cell r="S120">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T120">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="O121">
-            <v>95</v>
-          </cell>
-          <cell r="P121">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q121">
-            <v>246.75</v>
-          </cell>
-          <cell r="R121">
-            <v>230.84</v>
-          </cell>
-          <cell r="S121">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T121">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="O122">
-            <v>96</v>
-          </cell>
-          <cell r="P122">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q122">
-            <v>246.75</v>
-          </cell>
-          <cell r="R122">
-            <v>230.84</v>
-          </cell>
-          <cell r="S122">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T122">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="O123">
-            <v>97</v>
-          </cell>
-          <cell r="P123">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q123">
-            <v>246.75</v>
-          </cell>
-          <cell r="R123">
-            <v>230.84</v>
-          </cell>
-          <cell r="S123">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T123">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="O124">
-            <v>98</v>
-          </cell>
-          <cell r="P124">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q124">
-            <v>246.75</v>
-          </cell>
-          <cell r="R124">
-            <v>230.84</v>
-          </cell>
-          <cell r="S124">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T124">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="O125">
-            <v>99</v>
-          </cell>
-          <cell r="P125">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q125">
-            <v>246.75</v>
-          </cell>
-          <cell r="R125">
-            <v>230.84</v>
-          </cell>
-          <cell r="S125">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T125">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="O126">
-            <v>100</v>
-          </cell>
-          <cell r="P126">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q126">
-            <v>246.75</v>
-          </cell>
-          <cell r="R126">
-            <v>230.84</v>
-          </cell>
-          <cell r="S126">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T126">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="O127">
-            <v>101</v>
-          </cell>
-          <cell r="P127">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q127">
-            <v>246.75</v>
-          </cell>
-          <cell r="R127">
-            <v>230.84</v>
-          </cell>
-          <cell r="S127">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T127">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="O128">
-            <v>102</v>
-          </cell>
-          <cell r="P128">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q128">
-            <v>246.75</v>
-          </cell>
-          <cell r="R128">
-            <v>230.84</v>
-          </cell>
-          <cell r="S128">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T128">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="O129">
-            <v>103</v>
-          </cell>
-          <cell r="P129">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q129">
-            <v>246.75</v>
-          </cell>
-          <cell r="R129">
-            <v>230.84</v>
-          </cell>
-          <cell r="S129">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T129">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="O130">
-            <v>104</v>
-          </cell>
-          <cell r="P130">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q130">
-            <v>246.75</v>
-          </cell>
-          <cell r="R130">
-            <v>230.84</v>
-          </cell>
-          <cell r="S130">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T130">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="O131">
-            <v>105</v>
-          </cell>
-          <cell r="P131">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q131">
-            <v>246.75</v>
-          </cell>
-          <cell r="R131">
-            <v>230.84</v>
-          </cell>
-          <cell r="S131">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T131">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="O132">
-            <v>106</v>
-          </cell>
-          <cell r="P132">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q132">
-            <v>246.75</v>
-          </cell>
-          <cell r="R132">
-            <v>230.84</v>
-          </cell>
-          <cell r="S132">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T132">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="O133">
-            <v>107</v>
-          </cell>
-          <cell r="P133">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q133">
-            <v>246.75</v>
-          </cell>
-          <cell r="R133">
-            <v>230.84</v>
-          </cell>
-          <cell r="S133">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T133">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="O134">
-            <v>108</v>
-          </cell>
-          <cell r="P134">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q134">
-            <v>246.75</v>
-          </cell>
-          <cell r="R134">
-            <v>230.84</v>
-          </cell>
-          <cell r="S134">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T134">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="O135">
-            <v>109</v>
-          </cell>
-          <cell r="P135">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q135">
-            <v>246.75</v>
-          </cell>
-          <cell r="R135">
-            <v>230.84</v>
-          </cell>
-          <cell r="S135">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T135">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="O136">
-            <v>110</v>
-          </cell>
-          <cell r="P136">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q136">
-            <v>246.75</v>
-          </cell>
-          <cell r="R136">
-            <v>230.84</v>
-          </cell>
-          <cell r="S136">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T136">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="O137">
-            <v>111</v>
-          </cell>
-          <cell r="P137">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q137">
-            <v>246.75</v>
-          </cell>
-          <cell r="R137">
-            <v>230.84</v>
-          </cell>
-          <cell r="S137">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T137">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="O138">
-            <v>112</v>
-          </cell>
-          <cell r="P138">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q138">
-            <v>246.75</v>
-          </cell>
-          <cell r="R138">
-            <v>230.84</v>
-          </cell>
-          <cell r="S138">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T138">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="O139">
-            <v>113</v>
-          </cell>
-          <cell r="P139">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q139">
-            <v>246.75</v>
-          </cell>
-          <cell r="R139">
-            <v>230.84</v>
-          </cell>
-          <cell r="S139">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T139">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="O140">
-            <v>114</v>
-          </cell>
-          <cell r="P140">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q140">
-            <v>246.75</v>
-          </cell>
-          <cell r="R140">
-            <v>230.84</v>
-          </cell>
-          <cell r="S140">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T140">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="O141">
-            <v>115</v>
-          </cell>
-          <cell r="P141">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q141">
-            <v>246.75</v>
-          </cell>
-          <cell r="R141">
-            <v>230.84</v>
-          </cell>
-          <cell r="S141">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T141">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="O142">
-            <v>116</v>
-          </cell>
-          <cell r="P142">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q142">
-            <v>246.75</v>
-          </cell>
-          <cell r="R142">
-            <v>230.84</v>
-          </cell>
-          <cell r="S142">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T142">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="O143">
-            <v>117</v>
-          </cell>
-          <cell r="P143">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q143">
-            <v>246.75</v>
-          </cell>
-          <cell r="R143">
-            <v>230.84</v>
-          </cell>
-          <cell r="S143">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T143">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="O144">
-            <v>118</v>
-          </cell>
-          <cell r="P144">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q144">
-            <v>246.75</v>
-          </cell>
-          <cell r="R144">
-            <v>230.84</v>
-          </cell>
-          <cell r="S144">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T144">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="O145">
-            <v>119</v>
-          </cell>
-          <cell r="P145">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q145">
-            <v>246.75</v>
-          </cell>
-          <cell r="R145">
-            <v>230.84</v>
-          </cell>
-          <cell r="S145">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T145">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="O146">
-            <v>120</v>
-          </cell>
-          <cell r="P146">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q146">
-            <v>246.75</v>
-          </cell>
-          <cell r="R146">
-            <v>230.84</v>
-          </cell>
-          <cell r="S146">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T146">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="O147">
-            <v>121</v>
-          </cell>
-          <cell r="P147">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q147">
-            <v>246.75</v>
-          </cell>
-          <cell r="R147">
-            <v>230.84</v>
-          </cell>
-          <cell r="S147">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T147">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="O148">
-            <v>122</v>
-          </cell>
-          <cell r="P148">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q148">
-            <v>246.75</v>
-          </cell>
-          <cell r="R148">
-            <v>230.84</v>
-          </cell>
-          <cell r="S148">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T148">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="O149">
-            <v>123</v>
-          </cell>
-          <cell r="P149">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q149">
-            <v>246.75</v>
-          </cell>
-          <cell r="R149">
-            <v>230.84</v>
-          </cell>
-          <cell r="S149">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T149">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="O150">
-            <v>124</v>
-          </cell>
-          <cell r="P150">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q150">
-            <v>246.75</v>
-          </cell>
-          <cell r="R150">
-            <v>230.84</v>
-          </cell>
-          <cell r="S150">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T150">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="O151">
-            <v>125</v>
-          </cell>
-          <cell r="P151">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q151">
-            <v>246.75</v>
-          </cell>
-          <cell r="R151">
-            <v>230.84</v>
-          </cell>
-          <cell r="S151">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T151">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="O152">
-            <v>126</v>
-          </cell>
-          <cell r="P152">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q152">
-            <v>246.75</v>
-          </cell>
-          <cell r="R152">
-            <v>230.84</v>
-          </cell>
-          <cell r="S152">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T152">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="O153">
-            <v>127</v>
-          </cell>
-          <cell r="P153">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q153">
-            <v>246.75</v>
-          </cell>
-          <cell r="R153">
-            <v>230.84</v>
-          </cell>
-          <cell r="S153">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T153">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="O154">
-            <v>128</v>
-          </cell>
-          <cell r="P154">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q154">
-            <v>246.75</v>
-          </cell>
-          <cell r="R154">
-            <v>230.84</v>
-          </cell>
-          <cell r="S154">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T154">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="O155">
-            <v>129</v>
-          </cell>
-          <cell r="P155">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q155">
-            <v>246.75</v>
-          </cell>
-          <cell r="R155">
-            <v>230.84</v>
-          </cell>
-          <cell r="S155">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T155">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="O156">
-            <v>130</v>
-          </cell>
-          <cell r="P156">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q156">
-            <v>246.75</v>
-          </cell>
-          <cell r="R156">
-            <v>230.84</v>
-          </cell>
-          <cell r="S156">
-            <v>283.725006103515</v>
-          </cell>
-          <cell r="T156">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="O157">
-            <v>131</v>
-          </cell>
-          <cell r="P157">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q157">
-            <v>246.75</v>
-          </cell>
-          <cell r="R157">
-            <v>230.84</v>
-          </cell>
-          <cell r="S157">
-            <v>277.44900512695301</v>
-          </cell>
-          <cell r="T157">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="O158">
-            <v>132</v>
-          </cell>
-          <cell r="P158">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q158">
-            <v>246.75</v>
-          </cell>
-          <cell r="R158">
-            <v>230.84</v>
-          </cell>
-          <cell r="S158">
-            <v>277.44900512695301</v>
-          </cell>
-          <cell r="T158">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="O159">
-            <v>133</v>
-          </cell>
-          <cell r="P159">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q159">
-            <v>246.75</v>
-          </cell>
-          <cell r="R159">
-            <v>230.84</v>
-          </cell>
-          <cell r="S159">
-            <v>277.44900512695301</v>
-          </cell>
-          <cell r="T159">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="O160">
-            <v>134</v>
-          </cell>
-          <cell r="P160">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q160">
-            <v>246.75</v>
-          </cell>
-          <cell r="R160">
-            <v>230.84</v>
-          </cell>
-          <cell r="S160">
-            <v>276.86099243164</v>
-          </cell>
-          <cell r="T160">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="O161">
-            <v>135</v>
-          </cell>
-          <cell r="P161">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q161">
-            <v>246.75</v>
-          </cell>
-          <cell r="R161">
-            <v>230.84</v>
-          </cell>
-          <cell r="S161">
-            <v>276.86099243164</v>
-          </cell>
-          <cell r="T161">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="O162">
-            <v>136</v>
-          </cell>
-          <cell r="P162">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q162">
-            <v>241.08</v>
-          </cell>
-          <cell r="R162">
-            <v>230.84</v>
-          </cell>
-          <cell r="S162">
-            <v>276.86099243164</v>
-          </cell>
-          <cell r="T162">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="O163">
-            <v>137</v>
-          </cell>
-          <cell r="P163">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q163">
-            <v>241.08</v>
-          </cell>
-          <cell r="R163">
-            <v>230.84</v>
-          </cell>
-          <cell r="S163">
-            <v>276.86099243164</v>
-          </cell>
-          <cell r="T163">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="O164">
-            <v>138</v>
-          </cell>
-          <cell r="P164">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q164">
-            <v>241.08</v>
-          </cell>
-          <cell r="R164">
-            <v>230.84</v>
-          </cell>
-          <cell r="S164">
-            <v>276.86099243164</v>
-          </cell>
-          <cell r="T164">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="O165">
-            <v>139</v>
-          </cell>
-          <cell r="P165">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q165">
-            <v>241.08</v>
-          </cell>
-          <cell r="R165">
-            <v>230.84</v>
-          </cell>
-          <cell r="S165">
-            <v>276.86099243164</v>
-          </cell>
-          <cell r="T165">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="O166">
-            <v>140</v>
-          </cell>
-          <cell r="P166">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q166">
-            <v>241.08</v>
-          </cell>
-          <cell r="R166">
-            <v>230.84</v>
-          </cell>
-          <cell r="S166">
-            <v>271.80999755859301</v>
-          </cell>
-          <cell r="T166">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="O167">
-            <v>141</v>
-          </cell>
-          <cell r="P167">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q167">
-            <v>241.08</v>
-          </cell>
-          <cell r="R167">
-            <v>230.84</v>
-          </cell>
-          <cell r="S167">
-            <v>271.80999755859301</v>
-          </cell>
-          <cell r="T167">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="O168">
-            <v>142</v>
-          </cell>
-          <cell r="P168">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q168">
-            <v>241.08</v>
-          </cell>
-          <cell r="R168">
-            <v>230.84</v>
-          </cell>
-          <cell r="S168">
-            <v>271.80999755859301</v>
-          </cell>
-          <cell r="T168">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="O169">
-            <v>143</v>
-          </cell>
-          <cell r="P169">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q169">
-            <v>241.08</v>
-          </cell>
-          <cell r="R169">
-            <v>230.84</v>
-          </cell>
-          <cell r="S169">
-            <v>271.80999755859301</v>
-          </cell>
-          <cell r="T169">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="O170">
-            <v>144</v>
-          </cell>
-          <cell r="P170">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q170">
-            <v>241.08</v>
-          </cell>
-          <cell r="R170">
-            <v>230.84</v>
-          </cell>
-          <cell r="S170">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T170">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="O171">
-            <v>145</v>
-          </cell>
-          <cell r="P171">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q171">
-            <v>241.08</v>
-          </cell>
-          <cell r="R171">
-            <v>230.84</v>
-          </cell>
-          <cell r="S171">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T171">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="O172">
-            <v>146</v>
-          </cell>
-          <cell r="P172">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q172">
-            <v>241.08</v>
-          </cell>
-          <cell r="R172">
-            <v>230.84</v>
-          </cell>
-          <cell r="S172">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T172">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="O173">
-            <v>147</v>
-          </cell>
-          <cell r="P173">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q173">
-            <v>241.08</v>
-          </cell>
-          <cell r="R173">
-            <v>230.84</v>
-          </cell>
-          <cell r="S173">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T173">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="O174">
-            <v>148</v>
-          </cell>
-          <cell r="P174">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q174">
-            <v>241.08</v>
-          </cell>
-          <cell r="R174">
-            <v>230.84</v>
-          </cell>
-          <cell r="S174">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T174">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="O175">
-            <v>149</v>
-          </cell>
-          <cell r="P175">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q175">
-            <v>241.08</v>
-          </cell>
-          <cell r="R175">
-            <v>230.84</v>
-          </cell>
-          <cell r="S175">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T175">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="O176">
-            <v>150</v>
-          </cell>
-          <cell r="P176">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q176">
-            <v>241.08</v>
-          </cell>
-          <cell r="R176">
-            <v>230.84</v>
-          </cell>
-          <cell r="S176">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T176">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="O177">
-            <v>151</v>
-          </cell>
-          <cell r="P177">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q177">
-            <v>237.06</v>
-          </cell>
-          <cell r="R177">
-            <v>230.84</v>
-          </cell>
-          <cell r="S177">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T177">
-            <v>317.9169921875</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="O178">
-            <v>152</v>
-          </cell>
-          <cell r="P178">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q178">
-            <v>237.06</v>
-          </cell>
-          <cell r="R178">
-            <v>230.84</v>
-          </cell>
-          <cell r="S178">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T178">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="O179">
-            <v>153</v>
-          </cell>
-          <cell r="P179">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q179">
-            <v>237.06</v>
-          </cell>
-          <cell r="R179">
-            <v>230.84</v>
-          </cell>
-          <cell r="S179">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T179">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="O180">
-            <v>154</v>
-          </cell>
-          <cell r="P180">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q180">
-            <v>237.06</v>
-          </cell>
-          <cell r="R180">
-            <v>230.84</v>
-          </cell>
-          <cell r="S180">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T180">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="O181">
-            <v>155</v>
-          </cell>
-          <cell r="P181">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q181">
-            <v>237.06</v>
-          </cell>
-          <cell r="R181">
-            <v>230.84</v>
-          </cell>
-          <cell r="S181">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T181">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="O182">
-            <v>156</v>
-          </cell>
-          <cell r="P182">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q182">
-            <v>237.06</v>
-          </cell>
-          <cell r="R182">
-            <v>230.84</v>
-          </cell>
-          <cell r="S182">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T182">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="O183">
-            <v>157</v>
-          </cell>
-          <cell r="P183">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q183">
-            <v>237.06</v>
-          </cell>
-          <cell r="R183">
-            <v>227.91</v>
-          </cell>
-          <cell r="S183">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T183">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="O184">
-            <v>158</v>
-          </cell>
-          <cell r="P184">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q184">
-            <v>237.06</v>
-          </cell>
-          <cell r="R184">
-            <v>227.91</v>
-          </cell>
-          <cell r="S184">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T184">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="O185">
-            <v>159</v>
-          </cell>
-          <cell r="P185">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q185">
-            <v>237.06</v>
-          </cell>
-          <cell r="R185">
-            <v>227.91</v>
-          </cell>
-          <cell r="S185">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T185">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="O186">
-            <v>160</v>
-          </cell>
-          <cell r="P186">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q186">
-            <v>237.06</v>
-          </cell>
-          <cell r="R186">
-            <v>227.91</v>
-          </cell>
-          <cell r="S186">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T186">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="O187">
-            <v>161</v>
-          </cell>
-          <cell r="P187">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q187">
-            <v>237.06</v>
-          </cell>
-          <cell r="R187">
-            <v>227.91</v>
-          </cell>
-          <cell r="S187">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T187">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="O188">
-            <v>162</v>
-          </cell>
-          <cell r="P188">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q188">
-            <v>237.06</v>
-          </cell>
-          <cell r="R188">
-            <v>227.91</v>
-          </cell>
-          <cell r="S188">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T188">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="O189">
-            <v>163</v>
-          </cell>
-          <cell r="P189">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q189">
-            <v>237.06</v>
-          </cell>
-          <cell r="R189">
-            <v>227.91</v>
-          </cell>
-          <cell r="S189">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T189">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="O190">
-            <v>164</v>
-          </cell>
-          <cell r="P190">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q190">
-            <v>234.19</v>
-          </cell>
-          <cell r="R190">
-            <v>227.91</v>
-          </cell>
-          <cell r="S190">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T190">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="O191">
-            <v>165</v>
-          </cell>
-          <cell r="P191">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q191">
-            <v>234.19</v>
-          </cell>
-          <cell r="R191">
-            <v>227.91</v>
-          </cell>
-          <cell r="S191">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T191">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="O192">
-            <v>166</v>
-          </cell>
-          <cell r="P192">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q192">
-            <v>234.19</v>
-          </cell>
-          <cell r="R192">
-            <v>227.91</v>
-          </cell>
-          <cell r="S192">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T192">
-            <v>315.906982421875</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="O193">
-            <v>167</v>
-          </cell>
-          <cell r="P193">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q193">
-            <v>234.19</v>
-          </cell>
-          <cell r="R193">
-            <v>227.91</v>
-          </cell>
-          <cell r="S193">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T193">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="O194">
-            <v>168</v>
-          </cell>
-          <cell r="P194">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q194">
-            <v>234.19</v>
-          </cell>
-          <cell r="R194">
-            <v>227.91</v>
-          </cell>
-          <cell r="S194">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T194">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="O195">
-            <v>169</v>
-          </cell>
-          <cell r="P195">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q195">
-            <v>234.19</v>
-          </cell>
-          <cell r="R195">
-            <v>227.91</v>
-          </cell>
-          <cell r="S195">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T195">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="O196">
-            <v>170</v>
-          </cell>
-          <cell r="P196">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q196">
-            <v>234.19</v>
-          </cell>
-          <cell r="R196">
-            <v>227.91</v>
-          </cell>
-          <cell r="S196">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T196">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="O197">
-            <v>171</v>
-          </cell>
-          <cell r="P197">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q197">
-            <v>234.19</v>
-          </cell>
-          <cell r="R197">
-            <v>227.91</v>
-          </cell>
-          <cell r="S197">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T197">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="O198">
-            <v>172</v>
-          </cell>
-          <cell r="P198">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q198">
-            <v>234.19</v>
-          </cell>
-          <cell r="R198">
-            <v>227.91</v>
-          </cell>
-          <cell r="S198">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T198">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="O199">
-            <v>173</v>
-          </cell>
-          <cell r="P199">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q199">
-            <v>234.19</v>
-          </cell>
-          <cell r="R199">
-            <v>227.91</v>
-          </cell>
-          <cell r="S199">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T199">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="O200">
-            <v>174</v>
-          </cell>
-          <cell r="P200">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q200">
-            <v>234.19</v>
-          </cell>
-          <cell r="R200">
-            <v>227.91</v>
-          </cell>
-          <cell r="S200">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T200">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="O201">
-            <v>175</v>
-          </cell>
-          <cell r="P201">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q201">
-            <v>234.19</v>
-          </cell>
-          <cell r="R201">
-            <v>227.91</v>
-          </cell>
-          <cell r="S201">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T201">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="O202">
-            <v>176</v>
-          </cell>
-          <cell r="P202">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q202">
-            <v>234.19</v>
-          </cell>
-          <cell r="R202">
-            <v>227.91</v>
-          </cell>
-          <cell r="S202">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T202">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="O203">
-            <v>177</v>
-          </cell>
-          <cell r="P203">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q203">
-            <v>234.19</v>
-          </cell>
-          <cell r="R203">
-            <v>227.91</v>
-          </cell>
-          <cell r="S203">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T203">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="O204">
-            <v>178</v>
-          </cell>
-          <cell r="P204">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q204">
-            <v>234.19</v>
-          </cell>
-          <cell r="R204">
-            <v>227.91</v>
-          </cell>
-          <cell r="S204">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T204">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="O205">
-            <v>179</v>
-          </cell>
-          <cell r="P205">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q205">
-            <v>234.19</v>
-          </cell>
-          <cell r="R205">
-            <v>227.91</v>
-          </cell>
-          <cell r="S205">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T205">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="O206">
-            <v>180</v>
-          </cell>
-          <cell r="P206">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q206">
-            <v>234.19</v>
-          </cell>
-          <cell r="R206">
-            <v>227.91</v>
-          </cell>
-          <cell r="S206">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T206">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="O207">
-            <v>181</v>
-          </cell>
-          <cell r="P207">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q207">
-            <v>234.19</v>
-          </cell>
-          <cell r="R207">
-            <v>227.91</v>
-          </cell>
-          <cell r="S207">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T207">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="O208">
-            <v>182</v>
-          </cell>
-          <cell r="P208">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q208">
-            <v>234.19</v>
-          </cell>
-          <cell r="R208">
-            <v>227.91</v>
-          </cell>
-          <cell r="S208">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T208">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="O209">
-            <v>183</v>
-          </cell>
-          <cell r="P209">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q209">
-            <v>234.19</v>
-          </cell>
-          <cell r="R209">
-            <v>227.91</v>
-          </cell>
-          <cell r="S209">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T209">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="O210">
-            <v>184</v>
-          </cell>
-          <cell r="P210">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q210">
-            <v>234.19</v>
-          </cell>
-          <cell r="R210">
-            <v>227.91</v>
-          </cell>
-          <cell r="S210">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T210">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="O211">
-            <v>185</v>
-          </cell>
-          <cell r="P211">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q211">
-            <v>234.19</v>
-          </cell>
-          <cell r="R211">
-            <v>227.91</v>
-          </cell>
-          <cell r="S211">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T211">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="O212">
-            <v>186</v>
-          </cell>
-          <cell r="P212">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q212">
-            <v>234.19</v>
-          </cell>
-          <cell r="R212">
-            <v>227.91</v>
-          </cell>
-          <cell r="S212">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T212">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="O213">
-            <v>187</v>
-          </cell>
-          <cell r="P213">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q213">
-            <v>234.19</v>
-          </cell>
-          <cell r="R213">
-            <v>227.91</v>
-          </cell>
-          <cell r="S213">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T213">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="O214">
-            <v>188</v>
-          </cell>
-          <cell r="P214">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q214">
-            <v>234.19</v>
-          </cell>
-          <cell r="R214">
-            <v>227.91</v>
-          </cell>
-          <cell r="S214">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T214">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="O215">
-            <v>189</v>
-          </cell>
-          <cell r="P215">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q215">
-            <v>234.19</v>
-          </cell>
-          <cell r="R215">
-            <v>227.91</v>
-          </cell>
-          <cell r="S215">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T215">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="O216">
-            <v>190</v>
-          </cell>
-          <cell r="P216">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q216">
-            <v>234.19</v>
-          </cell>
-          <cell r="R216">
-            <v>227.91</v>
-          </cell>
-          <cell r="S216">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T216">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="O217">
-            <v>191</v>
-          </cell>
-          <cell r="P217">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q217">
-            <v>234.19</v>
-          </cell>
-          <cell r="R217">
-            <v>227.91</v>
-          </cell>
-          <cell r="S217">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T217">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="O218">
-            <v>192</v>
-          </cell>
-          <cell r="P218">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q218">
-            <v>234.19</v>
-          </cell>
-          <cell r="R218">
-            <v>227.91</v>
-          </cell>
-          <cell r="S218">
-            <v>268.86099243164</v>
-          </cell>
-          <cell r="T218">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="O219">
-            <v>193</v>
-          </cell>
-          <cell r="P219">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q219">
-            <v>231.78</v>
-          </cell>
-          <cell r="R219">
-            <v>227.91</v>
-          </cell>
-          <cell r="S219">
-            <v>267.77996826171801</v>
-          </cell>
-          <cell r="T219">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="O220">
-            <v>194</v>
-          </cell>
-          <cell r="P220">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q220">
-            <v>231.78</v>
-          </cell>
-          <cell r="R220">
-            <v>227.91</v>
-          </cell>
-          <cell r="S220">
-            <v>267.77996826171801</v>
-          </cell>
-          <cell r="T220">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="O221">
-            <v>195</v>
-          </cell>
-          <cell r="P221">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q221">
-            <v>231.78</v>
-          </cell>
-          <cell r="R221">
-            <v>227.91</v>
-          </cell>
-          <cell r="S221">
-            <v>267.77996826171801</v>
-          </cell>
-          <cell r="T221">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="O222">
-            <v>196</v>
-          </cell>
-          <cell r="P222">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q222">
-            <v>231.78</v>
-          </cell>
-          <cell r="R222">
-            <v>227.91</v>
-          </cell>
-          <cell r="S222">
-            <v>267.77996826171801</v>
-          </cell>
-          <cell r="T222">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="O223">
-            <v>197</v>
-          </cell>
-          <cell r="P223">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q223">
-            <v>231.78</v>
-          </cell>
-          <cell r="R223">
-            <v>227.91</v>
-          </cell>
-          <cell r="S223">
-            <v>267.77996826171801</v>
-          </cell>
-          <cell r="T223">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="O224">
-            <v>198</v>
-          </cell>
-          <cell r="P224">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q224">
-            <v>231.78</v>
-          </cell>
-          <cell r="R224">
-            <v>227.91</v>
-          </cell>
-          <cell r="S224">
-            <v>267.77996826171801</v>
-          </cell>
-          <cell r="T224">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="O225">
-            <v>199</v>
-          </cell>
-          <cell r="P225">
-            <v>265.90899658203102</v>
-          </cell>
-          <cell r="Q225">
-            <v>231.78</v>
-          </cell>
-          <cell r="R225">
-            <v>227.91</v>
-          </cell>
-          <cell r="S225">
-            <v>267.77996826171801</v>
-          </cell>
-          <cell r="T225">
-            <v>314.20794677734301</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:Q21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A2:Q21" xr:uid="{00000000-0009-0000-0100-000001000000}">
@@ -13539,18 +9508,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="9.7109375" customWidth="1"/>
     <col min="19" max="19" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="32" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -13876,12 +9845,6 @@
       <c r="AF6" s="14">
         <v>152</v>
       </c>
-      <c r="AG6" s="14">
-        <v>165</v>
-      </c>
-      <c r="AH6" s="16">
-        <v>194</v>
-      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -13974,12 +9937,6 @@
       <c r="AF7" s="14">
         <v>237.06</v>
       </c>
-      <c r="AG7" s="14">
-        <v>234.19</v>
-      </c>
-      <c r="AH7" s="16">
-        <v>231.78</v>
-      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -14325,6 +10282,42 @@
       <c r="S12" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="U12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>75</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>78</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>88</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>92</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>122</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>199</v>
+      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -14382,6 +10375,40 @@
       <c r="S13" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="U13" s="18"/>
+      <c r="V13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="14">
+        <v>192.8</v>
+      </c>
+      <c r="X13" s="14">
+        <v>190.3</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>188</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>177</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>180.4</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>184.1</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>179.6</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>173</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>173.7</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>173.2</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -14439,6 +10466,48 @@
       <c r="S14" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="U14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>38</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>85</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>102</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>121</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>123</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>156</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>192</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -14494,6 +10563,46 @@
         <v>304.32799999999992</v>
       </c>
       <c r="S15" s="6"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="14">
+        <v>200</v>
+      </c>
+      <c r="X15" s="14">
+        <v>178.1</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>178.6</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>188.5</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>178.9</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>163.4</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>172.1</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>179.57</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>172</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>163</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -14830,22 +10939,22 @@
       <c r="S21" s="6"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Q23" s="19" t="s">
+      <c r="Q23" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -18850,9 +14959,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="U14:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:C21">

--- a/files/results.xlsx
+++ b/files/results.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>chromosomeJorge1</t>
   </si>
@@ -199,54 +199,6 @@
   </si>
   <si>
     <t>chromosomeRaul4</t>
-  </si>
-  <si>
-    <t>Mean fitness: 293.20398</t>
-  </si>
-  <si>
-    <t>Fitness 0: 300,6</t>
-  </si>
-  <si>
-    <t>Fitness 1: 139,87</t>
-  </si>
-  <si>
-    <t>Fitness 2: 153,39</t>
-  </si>
-  <si>
-    <t>Fitness 3: 349,58</t>
-  </si>
-  <si>
-    <t>Fitness 4: 130,67</t>
-  </si>
-  <si>
-    <t>Fitness 5: 429,81</t>
-  </si>
-  <si>
-    <t>Fitness 6: 270,59</t>
-  </si>
-  <si>
-    <t>Fitness 7: 304,37</t>
-  </si>
-  <si>
-    <t>Fitness 8: 309,66</t>
-  </si>
-  <si>
-    <t>Fitness 10: 407,54</t>
-  </si>
-  <si>
-    <t>Fitness 11: 319,42</t>
-  </si>
-  <si>
-    <t>Fitness 12: 394,36</t>
-  </si>
-  <si>
-    <t>Fitness 13: 233,2</t>
-  </si>
-  <si>
-    <t>Fitness 14: 317,62</t>
-  </si>
-  <si>
-    <t>Fitness 9: 337,38</t>
   </si>
 </sst>
 </file>
@@ -1912,11 +1864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="211926528"/>
-        <c:axId val="178707200"/>
+        <c:axId val="209775616"/>
+        <c:axId val="175357248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211926528"/>
+        <c:axId val="209775616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1911,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178707200"/>
+        <c:crossAx val="175357248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1967,7 +1919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178707200"/>
+        <c:axId val="175357248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +1970,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211926528"/>
+        <c:crossAx val="209775616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9066,7 +9018,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>214.54</c:v>
+                  <c:v>333.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>249.05</c:v>
@@ -9680,11 +9632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213440512"/>
-        <c:axId val="211977344"/>
+        <c:axId val="211194880"/>
+        <c:axId val="209807040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213440512"/>
+        <c:axId val="211194880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9727,7 +9679,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211977344"/>
+        <c:crossAx val="209807040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9735,7 +9687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211977344"/>
+        <c:axId val="209807040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9786,7 +9738,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213440512"/>
+        <c:crossAx val="211194880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9887,7 +9839,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75CA5D8-B1E4-426B-A560-074200025C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E75CA5D8-B1E4-426B-A560-074200025C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9907,14 +9859,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>165806</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1135529</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>7469</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
@@ -9923,7 +9875,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54072C-2F63-420B-9752-00C77CD0C501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54072C-2F63-420B-9752-00C77CD0C501}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10245,7 +10197,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10255,8 +10207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11646,9 +11598,6 @@
       <c r="I27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L27" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B28" s="14">
@@ -11673,10 +11622,7 @@
         <v>268.43</v>
       </c>
       <c r="I28">
-        <v>214.54</v>
-      </c>
-      <c r="L28" t="s">
-        <v>59</v>
+        <v>333.84</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -11704,9 +11650,6 @@
       <c r="I29">
         <v>249.05</v>
       </c>
-      <c r="L29" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B30" s="14">
@@ -11733,9 +11676,6 @@
       <c r="I30">
         <v>249.05</v>
       </c>
-      <c r="L30" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B31" s="14">
@@ -11762,9 +11702,6 @@
       <c r="I31">
         <v>244.16</v>
       </c>
-      <c r="L31" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="14">
@@ -11791,11 +11728,8 @@
       <c r="I32">
         <v>244.16</v>
       </c>
-      <c r="L32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <v>5</v>
       </c>
@@ -11820,11 +11754,8 @@
       <c r="I33">
         <v>244.16</v>
       </c>
-      <c r="L33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="14">
         <v>6</v>
       </c>
@@ -11849,11 +11780,8 @@
       <c r="I34">
         <v>244.16</v>
       </c>
-      <c r="L34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="14">
         <v>7</v>
       </c>
@@ -11878,11 +11806,8 @@
       <c r="I35">
         <v>244.16</v>
       </c>
-      <c r="L35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="14">
         <v>8</v>
       </c>
@@ -11907,11 +11832,8 @@
       <c r="I36">
         <v>244.16</v>
       </c>
-      <c r="L36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="14">
         <v>9</v>
       </c>
@@ -11936,11 +11858,8 @@
       <c r="I37">
         <v>244.16</v>
       </c>
-      <c r="L37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="14">
         <v>10</v>
       </c>
@@ -11965,11 +11884,8 @@
       <c r="I38">
         <v>244.16</v>
       </c>
-      <c r="L38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="14">
         <v>11</v>
       </c>
@@ -11994,11 +11910,8 @@
       <c r="I39">
         <v>244.16</v>
       </c>
-      <c r="L39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="14">
         <v>12</v>
       </c>
@@ -12023,11 +11936,8 @@
       <c r="I40">
         <v>244.16</v>
       </c>
-      <c r="L40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="14">
         <v>13</v>
       </c>
@@ -12052,11 +11962,8 @@
       <c r="I41">
         <v>244.16</v>
       </c>
-      <c r="L41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="14">
         <v>14</v>
       </c>
@@ -12081,11 +11988,8 @@
       <c r="I42">
         <v>244.16</v>
       </c>
-      <c r="L42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="14">
         <v>15</v>
       </c>
@@ -12111,7 +12015,7 @@
         <v>244.16</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="14">
         <v>16</v>
       </c>
@@ -12137,7 +12041,7 @@
         <v>244.16</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="14">
         <v>17</v>
       </c>
@@ -12163,7 +12067,7 @@
         <v>244.16</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="14">
         <v>18</v>
       </c>
@@ -12189,7 +12093,7 @@
         <v>244.16</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="14">
         <v>19</v>
       </c>
@@ -12215,7 +12119,7 @@
         <v>239.67</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="14">
         <v>20</v>
       </c>

--- a/files/results.xlsx
+++ b/files/results.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\Digievolucion\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17663CE9-8FF8-46C9-8EC9-B8EA85D2C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -273,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,33 +512,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1038,13 +1005,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1072,6 +1032,13 @@
       </font>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1097,6 +1064,33 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1640,9 +1634,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1781,7 +1775,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001C-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -1924,7 +1918,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -2067,7 +2061,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -2210,7 +2204,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -2353,7 +2347,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -2496,7 +2490,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7497-45FA-9476-A33BFAF74754}"/>
             </c:ext>
@@ -2511,11 +2505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="211926528"/>
-        <c:axId val="178707200"/>
+        <c:axId val="214470144"/>
+        <c:axId val="181353792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211926528"/>
+        <c:axId val="214470144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2552,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178707200"/>
+        <c:crossAx val="181353792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2566,7 +2560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178707200"/>
+        <c:axId val="181353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2617,7 +2611,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211926528"/>
+        <c:crossAx val="214470144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2698,9 +2692,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2741,6 +2735,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4001,7 +3996,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-904D-45F6-8D6D-74C635E6742F}"/>
             </c:ext>
@@ -5252,7 +5247,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-904D-45F6-8D6D-74C635E6742F}"/>
             </c:ext>
@@ -6503,7 +6498,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-904D-45F6-8D6D-74C635E6742F}"/>
             </c:ext>
@@ -7754,7 +7749,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-904D-45F6-8D6D-74C635E6742F}"/>
             </c:ext>
@@ -9005,7 +9000,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-904D-45F6-8D6D-74C635E6742F}"/>
             </c:ext>
@@ -9638,7 +9633,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-94FC-4A42-97D2-9D1EB82EA996}"/>
             </c:ext>
@@ -9668,7 +9663,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>214.54</c:v>
+                  <c:v>333.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>249.05</c:v>
@@ -10271,7 +10266,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-94FC-4A42-97D2-9D1EB82EA996}"/>
             </c:ext>
@@ -10285,12 +10280,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213440512"/>
-        <c:axId val="211977344"/>
+        <c:axId val="216111104"/>
+        <c:axId val="175318720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213440512"/>
+        <c:axId val="216111104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10333,7 +10329,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211977344"/>
+        <c:crossAx val="175318720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10341,7 +10337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211977344"/>
+        <c:axId val="175318720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10392,7 +10388,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213440512"/>
+        <c:crossAx val="216111104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10406,6 +10402,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10473,9 +10470,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10512,6 +10509,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10520,26 +10518,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10574,132 +10552,132 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$30:$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$30:$R$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$30:$Q$30</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Map 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Map 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Map 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Map 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Map 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Map 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Map 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Map 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Map 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Map 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Map 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Map 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Map 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Map 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Map 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$31:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>251.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>446.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>479.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>325.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>376.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>369.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>525.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>462.78600000000006</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$31:$R$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$31:$Q$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>251.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>153.37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>172.87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>446.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>479.68</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>325.45999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>376.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>375.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>369.57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>525.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>333.84</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>462.78600000000006</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1732-4917-AE86-BD460214B103}"/>
             </c:ext>
@@ -10731,132 +10709,132 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$30:$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$30:$R$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$30:$Q$30</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Map 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Map 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Map 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Map 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Map 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Map 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Map 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Map 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Map 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Map 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Map 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Map 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Map 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Map 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Map 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>177.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>291.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>372.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>351.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>414.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>346.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>371.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>291.52</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>302.42400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$32:$R$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$32:$Q$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>177.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>158.79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>173.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>413.66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>157.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>456.55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>291.43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>322.97000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>372.77</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>351.88</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>414.53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>346.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>371.46</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>234.89</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>291.52</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>302.42400000000004</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1732-4917-AE86-BD460214B103}"/>
             </c:ext>
@@ -10888,132 +10866,132 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$30:$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$30:$R$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$30:$Q$30</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Map 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Map 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Map 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Map 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Map 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Map 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Map 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Map 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Map 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Map 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Map 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Map 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Map 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Map 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Map 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$33:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>300.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>429.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>309.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>407.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>407.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>319.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>394.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>233.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>317.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>302.334</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$33:$R$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$33:$Q$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>300.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>153.38999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>349.58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>130.66999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>429.81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>304.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>309.66000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>337.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>407.54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>407.54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>319.42</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>394.36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>233.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>317.62</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>302.334</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1732-4917-AE86-BD460214B103}"/>
             </c:ext>
@@ -11045,132 +11023,132 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$30:$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$30:$R$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$30:$Q$30</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Map 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Map 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Map 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Map 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Map 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Map 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Map 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Map 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Map 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Map 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Map 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Map 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Map 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Map 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Map 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$34:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>153.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>335.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>368.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>369.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>530.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>333.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>274.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>353.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.8626666666666</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$34:$R$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$34:$Q$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>153.52000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>169.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>349.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>162.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>480.78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>262.33999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>335.56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>368.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>369.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>530.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>333.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>274.91000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>198.84</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>353.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300.8626666666666</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1732-4917-AE86-BD460214B103}"/>
             </c:ext>
@@ -11202,132 +11180,132 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$30:$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$30:$R$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$30:$Q$30</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Map 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Map 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Map 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Map 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Map 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Map 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Map 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Map 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Map 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Map 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Map 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Map 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Map 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Map 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Map 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$35:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>166.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>484.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>261.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>378.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>330.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>447.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>304.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>357.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>277.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>310.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>296.98199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$35:$R$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$35:$Q$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>166.91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>164.55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>328.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143.74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>484.96</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>261.08999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>330.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>378.88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>330.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>447.99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>304.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>357.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>277.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>310.44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>296.98199999999997</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1732-4917-AE86-BD460214B103}"/>
             </c:ext>
@@ -11359,132 +11337,132 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$30:$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Map 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Map 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Map 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Map 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Map 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Map 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Map 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Map 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Map 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Map 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Map 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Map 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Map 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Map 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Map 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$30:$R$30</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$30:$Q$30</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Map 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Map 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Map 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Map 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Map 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Map 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Map 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Map 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Map 8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Map 9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Map 10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Map 11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Map 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Map 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Map 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
+              <c:f>Sheet1!$B$36:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>159.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>482.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>264.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>343.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>382.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>343.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>248.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>292.54000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
                     <c15:sqref>Sheet1!$B$36:$R$36</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$36:$Q$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>159.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>169.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>191.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>381.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>132.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>482.22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>264.29000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>343.38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>353.63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>302.64999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>382.46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>343.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>327.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>248.38</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>305.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>292.54000000000002</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1732-4917-AE86-BD460214B103}"/>
             </c:ext>
@@ -11500,11 +11478,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="459786015"/>
-        <c:axId val="459768959"/>
+        <c:axId val="216112128"/>
+        <c:axId val="175321024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="459786015"/>
+        <c:axId val="216112128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11547,7 +11525,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459768959"/>
+        <c:crossAx val="175321024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11555,7 +11533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459768959"/>
+        <c:axId val="175321024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11606,7 +11584,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459786015"/>
+        <c:crossAx val="216112128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11620,6 +11598,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12249,7 +12228,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75CA5D8-B1E4-426B-A560-074200025C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E75CA5D8-B1E4-426B-A560-074200025C77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12285,7 +12264,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54072C-2F63-420B-9752-00C77CD0C501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54072C-2F63-420B-9752-00C77CD0C501}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12321,7 +12300,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3032FFD6-DDBE-456D-BDEB-34BFB38414A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3032FFD6-DDBE-456D-BDEB-34BFB38414A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12343,8 +12322,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:R28" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
-  <autoFilter ref="A2:R28" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:R28" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+  <autoFilter ref="A2:R28">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -12365,34 +12344,34 @@
     <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Model" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Map 0" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Map 1" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Map 2" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Map 3" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Map 4" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Map 5" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Map 6" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Map 7" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Map 8" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Map 9" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Map 10" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Map 11" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Map 12" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Map 13" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Map 14" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Average" dataDxfId="24">
+    <tableColumn id="1" name="Model" dataDxfId="40"/>
+    <tableColumn id="2" name="Map 0" dataDxfId="39"/>
+    <tableColumn id="3" name="Map 1" dataDxfId="38"/>
+    <tableColumn id="4" name="Map 2" dataDxfId="37"/>
+    <tableColumn id="5" name="Map 3" dataDxfId="36"/>
+    <tableColumn id="6" name="Map 4" dataDxfId="35"/>
+    <tableColumn id="7" name="Map 5" dataDxfId="34"/>
+    <tableColumn id="8" name="Map 6" dataDxfId="33"/>
+    <tableColumn id="9" name="Map 7" dataDxfId="32"/>
+    <tableColumn id="10" name="Map 8" dataDxfId="31"/>
+    <tableColumn id="11" name="Map 9" dataDxfId="30"/>
+    <tableColumn id="12" name="Map 10" dataDxfId="29"/>
+    <tableColumn id="13" name="Map 11" dataDxfId="28"/>
+    <tableColumn id="14" name="Map 12" dataDxfId="27"/>
+    <tableColumn id="15" name="Map 13" dataDxfId="26"/>
+    <tableColumn id="16" name="Map 14" dataDxfId="25"/>
+    <tableColumn id="17" name="Average" dataDxfId="24">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{688D3413-E425-4586-BB0D-694D789BC5A9}" name="Entrenado con" dataDxfId="0"/>
+    <tableColumn id="18" name="Entrenado con" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E94F05C3-E804-4915-94E6-CA38C6356F38}" name="Table15" displayName="Table15" ref="A30:R36" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
-  <autoFilter ref="A30:R36" xr:uid="{E94F05C3-E804-4915-94E6-CA38C6356F38}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A30:R36" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A30:R36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -12412,30 +12391,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
     <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:R36">
+  <sortState ref="A31:R36">
     <sortCondition descending="1" ref="Q30:Q36"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{2B56924B-A486-4C73-A5D2-9ED9BDC51F90}" name="Model" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F82E0CA6-08E5-4F90-9C2B-1D08321E217A}" name="Map 0" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{4EFF1879-90D3-4FDA-9638-6BDAF3DA29B1}" name="Map 1" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{49E02104-9084-40A8-82AB-24AE6E41A801}" name="Map 2" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E8D2C35C-B131-486A-B20F-9B8A7CDEE766}" name="Map 3" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C67B9BCD-07F5-40D5-BA4A-473F72BEA098}" name="Map 4" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{9FC34978-36C8-4CA1-A641-FD79B59B4D08}" name="Map 5" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{403B2F21-6BEB-4FF4-9EEE-5B3C2F838CF6}" name="Map 6" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{7DD4F955-1B64-4143-B895-49797CDE1E46}" name="Map 7" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{F2494137-F765-4A58-984B-A699C53B8D91}" name="Map 8" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{8E4A4377-5828-48B6-9095-1DCE90720A0A}" name="Map 9" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{6523108B-97AE-4602-B6C3-F121553F11B3}" name="Map 10" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{9A53254D-DE24-4B9F-8976-E6A7C126CB25}" name="Map 11" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{B8CBB00F-1CBD-442F-90EC-530AB303706E}" name="Map 12" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{AAF5D515-37E9-4E0F-AE63-B89BBE93F39C}" name="Map 13" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{64344947-55FA-4550-B998-8AC85F00E6C1}" name="Map 14" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{46CFD884-6576-4F55-AA77-8B20EAA49EB8}" name="Average" dataDxfId="2">
+    <tableColumn id="1" name="Model" dataDxfId="17"/>
+    <tableColumn id="2" name="Map 0" dataDxfId="16"/>
+    <tableColumn id="3" name="Map 1" dataDxfId="15"/>
+    <tableColumn id="4" name="Map 2" dataDxfId="14"/>
+    <tableColumn id="5" name="Map 3" dataDxfId="13"/>
+    <tableColumn id="6" name="Map 4" dataDxfId="12"/>
+    <tableColumn id="7" name="Map 5" dataDxfId="11"/>
+    <tableColumn id="8" name="Map 6" dataDxfId="10"/>
+    <tableColumn id="9" name="Map 7" dataDxfId="9"/>
+    <tableColumn id="10" name="Map 8" dataDxfId="8"/>
+    <tableColumn id="11" name="Map 9" dataDxfId="7"/>
+    <tableColumn id="12" name="Map 10" dataDxfId="6"/>
+    <tableColumn id="13" name="Map 11" dataDxfId="5"/>
+    <tableColumn id="14" name="Map 12" dataDxfId="4"/>
+    <tableColumn id="15" name="Map 13" dataDxfId="3"/>
+    <tableColumn id="16" name="Map 14" dataDxfId="2"/>
+    <tableColumn id="17" name="Average" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(Table15[[#This Row],[Map 0]:[Map 14]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{1550A4F4-5A9D-4CAD-A39F-62AFA87FC701}" name="Entrenado con" dataDxfId="1"/>
+    <tableColumn id="18" name="Entrenado con" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12696,32 +12675,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="9.7265625" customWidth="1"/>
+    <col min="18" max="18" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" customWidth="1"/>
+    <col min="21" max="21" width="8.81640625" customWidth="1"/>
+    <col min="22" max="22" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="32" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -12778,7 +12757,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -12836,7 +12815,7 @@
       </c>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -12894,7 +12873,7 @@
       </c>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -12952,7 +12931,7 @@
       </c>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -13010,7 +12989,7 @@
       </c>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -13068,7 +13047,7 @@
       </c>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -13126,7 +13105,7 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -13184,7 +13163,7 @@
       </c>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -13242,7 +13221,7 @@
       </c>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -13300,7 +13279,7 @@
       </c>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -13358,7 +13337,7 @@
       </c>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -13415,7 +13394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
@@ -13472,7 +13451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
@@ -13529,7 +13508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
@@ -13586,7 +13565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -13643,7 +13622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -13700,7 +13679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -13757,7 +13736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -13811,10 +13790,10 @@
         <v>304.32799999999992</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -13868,10 +13847,10 @@
         <v>296.98199999999997</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
@@ -13928,7 +13907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
@@ -13985,7 +13964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
@@ -14042,7 +14021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
@@ -14099,7 +14078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>41</v>
       </c>
@@ -14153,10 +14132,10 @@
         <v>302.42400000000004</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>42</v>
       </c>
@@ -14213,7 +14192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -14266,11 +14245,11 @@
         <f>AVERAGE(Table1[[#This Row],[Map 0]:[Map 14]])</f>
         <v>333.03133333333341</v>
       </c>
-      <c r="R28" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -14290,7 +14269,7 @@
       <c r="Q29" s="20"/>
       <c r="S29" s="20"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -14346,7 +14325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -14403,7 +14382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>41</v>
       </c>
@@ -14457,10 +14436,10 @@
         <v>302.42400000000004</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>53</v>
       </c>
@@ -14517,7 +14496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>52</v>
       </c>
@@ -14574,7 +14553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
@@ -14628,10 +14607,10 @@
         <v>296.98199999999997</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>23</v>
       </c>
@@ -14688,7 +14667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -14707,7 +14686,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="20"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
         <v>45</v>
       </c>
@@ -14736,7 +14715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="13">
         <v>0</v>
       </c>
@@ -14759,13 +14738,13 @@
         <v>268.43</v>
       </c>
       <c r="I39" s="13">
-        <v>214.54</v>
+        <v>333.84</v>
       </c>
       <c r="L39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="13">
         <v>1</v>
       </c>
@@ -14794,7 +14773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B41" s="13">
         <v>2</v>
       </c>
@@ -14823,7 +14802,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B42" s="13">
         <v>3</v>
       </c>
@@ -14852,7 +14831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B43" s="13">
         <v>4</v>
       </c>
@@ -14881,7 +14860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B44" s="13">
         <v>5</v>
       </c>
@@ -14910,7 +14889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B45" s="13">
         <v>6</v>
       </c>
@@ -14939,7 +14918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B46" s="13">
         <v>7</v>
       </c>
@@ -14968,7 +14947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="13">
         <v>8</v>
       </c>
@@ -14997,7 +14976,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="13">
         <v>9</v>
       </c>
@@ -15026,7 +15005,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B49" s="13">
         <v>10</v>
       </c>
@@ -15055,7 +15034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B50" s="13">
         <v>11</v>
       </c>
@@ -15084,7 +15063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B51" s="13">
         <v>12</v>
       </c>
@@ -15113,7 +15092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B52" s="13">
         <v>13</v>
       </c>
@@ -15142,7 +15121,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B53" s="13">
         <v>14</v>
       </c>
@@ -15171,7 +15150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B54" s="13">
         <v>15</v>
       </c>
@@ -15197,7 +15176,7 @@
         <v>244.16</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B55" s="13">
         <v>16</v>
       </c>
@@ -15223,7 +15202,7 @@
         <v>244.16</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B56" s="13">
         <v>17</v>
       </c>
@@ -15250,7 +15229,7 @@
       </c>
       <c r="S56" s="20"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B57" s="13">
         <v>18</v>
       </c>
@@ -15276,7 +15255,7 @@
         <v>244.16</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B58" s="13">
         <v>19</v>
       </c>
@@ -15302,7 +15281,7 @@
         <v>239.67</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B59" s="13">
         <v>20</v>
       </c>
@@ -15328,7 +15307,7 @@
         <v>216.43</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B60" s="13">
         <v>21</v>
       </c>
@@ -15354,7 +15333,7 @@
         <v>216.43</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B61" s="13">
         <v>22</v>
       </c>
@@ -15380,7 +15359,7 @@
         <v>216.43</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B62" s="13">
         <v>23</v>
       </c>
@@ -15406,7 +15385,7 @@
         <v>216.43</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B63" s="13">
         <v>24</v>
       </c>
@@ -15432,7 +15411,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B64" s="13">
         <v>25</v>
       </c>
@@ -15458,7 +15437,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="13">
         <v>26</v>
       </c>
@@ -15484,7 +15463,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="13">
         <v>27</v>
       </c>
@@ -15510,7 +15489,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="13">
         <v>28</v>
       </c>
@@ -15536,7 +15515,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="13">
         <v>29</v>
       </c>
@@ -15562,7 +15541,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="13">
         <v>30</v>
       </c>
@@ -15588,7 +15567,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="13">
         <v>31</v>
       </c>
@@ -15614,7 +15593,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="13">
         <v>32</v>
       </c>
@@ -15640,7 +15619,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="13">
         <v>33</v>
       </c>
@@ -15666,7 +15645,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="13">
         <v>34</v>
       </c>
@@ -15692,7 +15671,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="13">
         <v>35</v>
       </c>
@@ -15718,7 +15697,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="13">
         <v>36</v>
       </c>
@@ -15744,7 +15723,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="13">
         <v>37</v>
       </c>
@@ -15770,7 +15749,7 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="13">
         <v>38</v>
       </c>
@@ -15796,7 +15775,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="13">
         <v>39</v>
       </c>
@@ -15822,7 +15801,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="13">
         <v>40</v>
       </c>
@@ -15848,7 +15827,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="13">
         <v>41</v>
       </c>
@@ -15874,7 +15853,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="13">
         <v>42</v>
       </c>
@@ -15900,7 +15879,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="13">
         <v>43</v>
       </c>
@@ -15926,7 +15905,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="13">
         <v>44</v>
       </c>
@@ -15952,7 +15931,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="13">
         <v>45</v>
       </c>
@@ -15978,7 +15957,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="13">
         <v>46</v>
       </c>
@@ -16004,7 +15983,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="13">
         <v>47</v>
       </c>
@@ -16030,7 +16009,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="13">
         <v>48</v>
       </c>
@@ -16056,7 +16035,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="13">
         <v>49</v>
       </c>
@@ -16082,7 +16061,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="13">
         <v>50</v>
       </c>
@@ -16108,7 +16087,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B90" s="13">
         <v>51</v>
       </c>
@@ -16134,7 +16113,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="13">
         <v>52</v>
       </c>
@@ -16160,7 +16139,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" s="13">
         <v>53</v>
       </c>
@@ -16186,7 +16165,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B93" s="13">
         <v>54</v>
       </c>
@@ -16212,7 +16191,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B94" s="13">
         <v>55</v>
       </c>
@@ -16238,7 +16217,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B95" s="13">
         <v>56</v>
       </c>
@@ -16264,7 +16243,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="13">
         <v>57</v>
       </c>
@@ -16290,7 +16269,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B97" s="13">
         <v>58</v>
       </c>
@@ -16316,7 +16295,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B98" s="13">
         <v>59</v>
       </c>
@@ -16342,7 +16321,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B99" s="13">
         <v>60</v>
       </c>
@@ -16368,7 +16347,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B100" s="13">
         <v>61</v>
       </c>
@@ -16394,7 +16373,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B101" s="13">
         <v>62</v>
       </c>
@@ -16420,7 +16399,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B102" s="13">
         <v>63</v>
       </c>
@@ -16446,7 +16425,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B103" s="13">
         <v>64</v>
       </c>
@@ -16472,7 +16451,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B104" s="13">
         <v>65</v>
       </c>
@@ -16498,7 +16477,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B105" s="13">
         <v>66</v>
       </c>
@@ -16524,7 +16503,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B106" s="13">
         <v>67</v>
       </c>
@@ -16550,7 +16529,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B107" s="13">
         <v>68</v>
       </c>
@@ -16576,7 +16555,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B108" s="13">
         <v>69</v>
       </c>
@@ -16602,7 +16581,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B109" s="13">
         <v>70</v>
       </c>
@@ -16628,7 +16607,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B110" s="13">
         <v>71</v>
       </c>
@@ -16654,7 +16633,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B111" s="13">
         <v>72</v>
       </c>
@@ -16680,7 +16659,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B112" s="13">
         <v>73</v>
       </c>
@@ -16706,7 +16685,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B113" s="13">
         <v>74</v>
       </c>
@@ -16732,7 +16711,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B114" s="13">
         <v>75</v>
       </c>
@@ -16758,7 +16737,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B115" s="13">
         <v>76</v>
       </c>
@@ -16784,7 +16763,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B116" s="13">
         <v>77</v>
       </c>
@@ -16810,7 +16789,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B117" s="13">
         <v>78</v>
       </c>
@@ -16836,7 +16815,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B118" s="13">
         <v>79</v>
       </c>
@@ -16862,7 +16841,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B119" s="13">
         <v>80</v>
       </c>
@@ -16888,7 +16867,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B120" s="13">
         <v>81</v>
       </c>
@@ -16914,7 +16893,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B121" s="13">
         <v>82</v>
       </c>
@@ -16940,7 +16919,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B122" s="13">
         <v>83</v>
       </c>
@@ -16966,7 +16945,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B123" s="13">
         <v>84</v>
       </c>
@@ -16992,7 +16971,7 @@
         <v>212.29</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B124" s="13">
         <v>85</v>
       </c>
@@ -17018,7 +16997,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B125" s="13">
         <v>86</v>
       </c>
@@ -17044,7 +17023,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B126" s="13">
         <v>87</v>
       </c>
@@ -17070,7 +17049,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B127" s="13">
         <v>88</v>
       </c>
@@ -17096,7 +17075,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B128" s="13">
         <v>89</v>
       </c>
@@ -17122,7 +17101,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B129" s="13">
         <v>90</v>
       </c>
@@ -17148,7 +17127,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B130" s="13">
         <v>91</v>
       </c>
@@ -17174,7 +17153,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B131" s="13">
         <v>92</v>
       </c>
@@ -17200,7 +17179,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B132" s="13">
         <v>93</v>
       </c>
@@ -17226,7 +17205,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B133" s="13">
         <v>94</v>
       </c>
@@ -17252,7 +17231,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B134" s="13">
         <v>95</v>
       </c>
@@ -17278,7 +17257,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B135" s="13">
         <v>96</v>
       </c>
@@ -17304,7 +17283,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B136" s="13">
         <v>97</v>
       </c>
@@ -17330,7 +17309,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B137" s="13">
         <v>98</v>
       </c>
@@ -17356,7 +17335,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B138" s="13">
         <v>99</v>
       </c>
@@ -17382,7 +17361,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B139" s="13">
         <v>100</v>
       </c>
@@ -17408,7 +17387,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B140" s="13">
         <v>101</v>
       </c>
@@ -17434,7 +17413,7 @@
         <v>203.37</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B141" s="13">
         <v>102</v>
       </c>
@@ -17460,7 +17439,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B142" s="13">
         <v>103</v>
       </c>
@@ -17486,7 +17465,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B143" s="13">
         <v>104</v>
       </c>
@@ -17512,7 +17491,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B144" s="13">
         <v>105</v>
       </c>
@@ -17538,7 +17517,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B145" s="13">
         <v>106</v>
       </c>
@@ -17564,7 +17543,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B146" s="13">
         <v>107</v>
       </c>
@@ -17590,7 +17569,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B147" s="13">
         <v>108</v>
       </c>
@@ -17616,7 +17595,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B148" s="13">
         <v>109</v>
       </c>
@@ -17642,7 +17621,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B149" s="13">
         <v>110</v>
       </c>
@@ -17668,7 +17647,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B150" s="13">
         <v>111</v>
       </c>
@@ -17694,7 +17673,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B151" s="13">
         <v>112</v>
       </c>
@@ -17720,7 +17699,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B152" s="13">
         <v>113</v>
       </c>
@@ -17746,7 +17725,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B153" s="13">
         <v>114</v>
       </c>
@@ -17772,7 +17751,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B154" s="13">
         <v>115</v>
       </c>
@@ -17798,7 +17777,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B155" s="13">
         <v>116</v>
       </c>
@@ -17824,7 +17803,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B156" s="13">
         <v>117</v>
       </c>
@@ -17850,7 +17829,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B157" s="13">
         <v>118</v>
       </c>
@@ -17876,7 +17855,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B158" s="13">
         <v>119</v>
       </c>
@@ -17902,7 +17881,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B159" s="13">
         <v>120</v>
       </c>
@@ -17928,7 +17907,7 @@
         <v>197.22</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B160" s="13">
         <v>121</v>
       </c>
@@ -17954,7 +17933,7 @@
         <v>195.42</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B161" s="13">
         <v>122</v>
       </c>
@@ -17980,7 +17959,7 @@
         <v>195.42</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B162" s="13">
         <v>123</v>
       </c>
@@ -18006,7 +17985,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B163" s="13">
         <v>124</v>
       </c>
@@ -18032,7 +18011,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B164" s="13">
         <v>125</v>
       </c>
@@ -18058,7 +18037,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B165" s="13">
         <v>126</v>
       </c>
@@ -18084,7 +18063,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B166" s="13">
         <v>127</v>
       </c>
@@ -18110,7 +18089,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B167" s="13">
         <v>128</v>
       </c>
@@ -18136,7 +18115,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B168" s="13">
         <v>129</v>
       </c>
@@ -18162,7 +18141,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B169" s="13">
         <v>130</v>
       </c>
@@ -18188,7 +18167,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B170" s="13">
         <v>131</v>
       </c>
@@ -18214,7 +18193,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B171" s="13">
         <v>132</v>
       </c>
@@ -18240,7 +18219,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B172" s="13">
         <v>133</v>
       </c>
@@ -18266,7 +18245,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B173" s="13">
         <v>134</v>
       </c>
@@ -18292,7 +18271,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B174" s="13">
         <v>135</v>
       </c>
@@ -18318,7 +18297,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B175" s="13">
         <v>136</v>
       </c>
@@ -18344,7 +18323,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B176" s="13">
         <v>137</v>
       </c>
@@ -18370,7 +18349,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B177" s="13">
         <v>138</v>
       </c>
@@ -18396,7 +18375,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B178" s="13">
         <v>139</v>
       </c>
@@ -18422,7 +18401,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B179" s="13">
         <v>140</v>
       </c>
@@ -18448,7 +18427,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B180" s="13">
         <v>141</v>
       </c>
@@ -18474,7 +18453,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B181" s="13">
         <v>142</v>
       </c>
@@ -18500,7 +18479,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B182" s="13">
         <v>143</v>
       </c>
@@ -18526,7 +18505,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B183" s="13">
         <v>144</v>
       </c>
@@ -18552,7 +18531,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B184" s="13">
         <v>145</v>
       </c>
@@ -18578,7 +18557,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B185" s="13">
         <v>146</v>
       </c>
@@ -18604,7 +18583,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B186" s="13">
         <v>147</v>
       </c>
@@ -18630,7 +18609,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B187" s="13">
         <v>148</v>
       </c>
@@ -18656,7 +18635,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B188" s="13">
         <v>149</v>
       </c>
@@ -18682,7 +18661,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B189" s="13">
         <v>150</v>
       </c>
@@ -18708,7 +18687,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B190" s="13">
         <v>151</v>
       </c>
@@ -18734,7 +18713,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B191" s="13">
         <v>152</v>
       </c>
@@ -18760,7 +18739,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B192" s="13">
         <v>153</v>
       </c>
@@ -18786,7 +18765,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B193" s="13">
         <v>154</v>
       </c>
@@ -18812,7 +18791,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B194" s="13">
         <v>155</v>
       </c>
@@ -18838,7 +18817,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B195" s="13">
         <v>156</v>
       </c>
@@ -18864,7 +18843,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B196" s="13">
         <v>157</v>
       </c>
@@ -18890,7 +18869,7 @@
         <v>189.73</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B197" s="13">
         <v>158</v>
       </c>
@@ -18916,7 +18895,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B198" s="13">
         <v>159</v>
       </c>
@@ -18942,7 +18921,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B199" s="13">
         <v>160</v>
       </c>
@@ -18968,7 +18947,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B200" s="13">
         <v>161</v>
       </c>
@@ -18994,7 +18973,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B201" s="13">
         <v>162</v>
       </c>
@@ -19020,7 +18999,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B202" s="13">
         <v>163</v>
       </c>
@@ -19046,7 +19025,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B203" s="13">
         <v>164</v>
       </c>
@@ -19072,7 +19051,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B204" s="13">
         <v>165</v>
       </c>
@@ -19098,7 +19077,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B205" s="13">
         <v>166</v>
       </c>
@@ -19124,7 +19103,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B206" s="13">
         <v>167</v>
       </c>
@@ -19150,7 +19129,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B207" s="13">
         <v>168</v>
       </c>
@@ -19176,7 +19155,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B208" s="13">
         <v>169</v>
       </c>
@@ -19202,7 +19181,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B209" s="13">
         <v>170</v>
       </c>
@@ -19228,7 +19207,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B210" s="13">
         <v>171</v>
       </c>
@@ -19254,7 +19233,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B211" s="13">
         <v>172</v>
       </c>
@@ -19280,7 +19259,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B212" s="13">
         <v>173</v>
       </c>
@@ -19306,7 +19285,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B213" s="13">
         <v>174</v>
       </c>
@@ -19332,7 +19311,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B214" s="13">
         <v>175</v>
       </c>
@@ -19358,7 +19337,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B215" s="13">
         <v>176</v>
       </c>
@@ -19384,7 +19363,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B216" s="13">
         <v>177</v>
       </c>
@@ -19410,7 +19389,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B217" s="13">
         <v>178</v>
       </c>
@@ -19436,7 +19415,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B218" s="13">
         <v>179</v>
       </c>
@@ -19462,7 +19441,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B219" s="13">
         <v>180</v>
       </c>
@@ -19488,7 +19467,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B220" s="13">
         <v>181</v>
       </c>
@@ -19514,7 +19493,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B221" s="13">
         <v>182</v>
       </c>
@@ -19540,7 +19519,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B222" s="13">
         <v>183</v>
       </c>
@@ -19566,7 +19545,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B223" s="13">
         <v>184</v>
       </c>
@@ -19592,7 +19571,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B224" s="13">
         <v>185</v>
       </c>
@@ -19618,7 +19597,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B225" s="13">
         <v>186</v>
       </c>
@@ -19644,7 +19623,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B226" s="13">
         <v>187</v>
       </c>
@@ -19670,7 +19649,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B227" s="13">
         <v>188</v>
       </c>
@@ -19696,7 +19675,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B228" s="13">
         <v>189</v>
       </c>
@@ -19722,7 +19701,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B229" s="13">
         <v>190</v>
       </c>
@@ -19748,7 +19727,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B230" s="13">
         <v>191</v>
       </c>
@@ -19774,7 +19753,7 @@
         <v>188.97</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B231" s="13">
         <v>192</v>
       </c>
@@ -19800,7 +19779,7 @@
         <v>185.36</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B232" s="13">
         <v>193</v>
       </c>
@@ -19826,7 +19805,7 @@
         <v>185.36</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B233" s="13">
         <v>194</v>
       </c>
@@ -19852,7 +19831,7 @@
         <v>185.36</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B234" s="13">
         <v>195</v>
       </c>
@@ -19878,7 +19857,7 @@
         <v>185.36</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B235" s="13">
         <v>196</v>
       </c>
@@ -19904,7 +19883,7 @@
         <v>185.36</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B236" s="13">
         <v>197</v>
       </c>
@@ -19930,7 +19909,7 @@
         <v>185.36</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B237" s="13">
         <v>198</v>
       </c>
@@ -19956,7 +19935,7 @@
         <v>185.36</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B238" s="13">
         <v>199</v>
       </c>
